--- a/Gov50Proj/sfa1819.xlsx
+++ b/Gov50Proj/sfa1819.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Shares\IPEDS\DCT\2019\Winter\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yifanchen/Dropbox/Gov50/unifunds/Gov50Proj/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15BDDA34-CC4F-8D41-A272-990CE931EF1A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15240" yWindow="315" windowWidth="13125" windowHeight="10830"/>
+    <workbookView xWindow="2800" yWindow="600" windowWidth="16460" windowHeight="14000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction" sheetId="6" r:id="rId1"/>
@@ -4234,11 +4235,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="MS Sans Serif"/>
@@ -4445,6 +4446,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -4480,6 +4498,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4655,23 +4690,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="25" style="2" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" style="1" customWidth="1"/>
-    <col min="3" max="9" width="9.140625" style="1"/>
-    <col min="10" max="10" width="10.42578125" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="17.796875" style="1" customWidth="1"/>
+    <col min="3" max="9" width="9.19921875" style="1"/>
+    <col min="10" max="10" width="10.3984375" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.19921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10">
       <c r="A1" s="19" t="s">
         <v>981</v>
       </c>
@@ -4685,7 +4720,7 @@
       <c r="I1" s="19"/>
       <c r="J1" s="19"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10">
       <c r="A2" s="16" t="s">
         <v>898</v>
       </c>
@@ -4699,7 +4734,7 @@
       <c r="I2" s="17"/>
       <c r="J2" s="17"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10">
       <c r="A3" s="6"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
@@ -4711,7 +4746,7 @@
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
@@ -4719,11 +4754,11 @@
         <v>982</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10">
       <c r="A5" s="3"/>
       <c r="B5" s="4"/>
     </row>
-    <row r="6" spans="1:10" ht="141.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="141.75" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
@@ -4739,7 +4774,7 @@
       <c r="I6" s="20"/>
       <c r="J6" s="20"/>
     </row>
-    <row r="7" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="14" customHeight="1">
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -4750,7 +4785,7 @@
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
     </row>
-    <row r="8" spans="1:10" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="67.5" customHeight="1">
       <c r="A8" s="2" t="s">
         <v>2</v>
       </c>
@@ -4766,8 +4801,8 @@
       <c r="I8" s="22"/>
       <c r="J8" s="22"/>
     </row>
-    <row r="9" spans="1:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="9.75" customHeight="1"/>
+    <row r="10" spans="1:10">
       <c r="A10" s="21" t="s">
         <v>3</v>
       </c>
@@ -4781,7 +4816,7 @@
       <c r="I10" s="21"/>
       <c r="J10" s="21"/>
     </row>
-    <row r="12" spans="1:10" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="66.75" customHeight="1">
       <c r="A12" s="2" t="s">
         <v>4</v>
       </c>
@@ -4797,7 +4832,7 @@
       <c r="I12" s="20"/>
       <c r="J12" s="20"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10">
       <c r="A13" s="2" t="s">
         <v>6</v>
       </c>
@@ -4813,7 +4848,7 @@
       <c r="I13" s="20"/>
       <c r="J13" s="20"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10">
       <c r="A14" s="2" t="s">
         <v>8</v>
       </c>
@@ -4829,7 +4864,7 @@
       <c r="I14" s="18"/>
       <c r="J14" s="18"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10">
       <c r="A15" s="2" t="s">
         <v>9</v>
       </c>
@@ -4863,26 +4898,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G317"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="12.140625" style="1" customWidth="1"/>
-    <col min="3" max="4" width="9.140625" style="1"/>
-    <col min="5" max="5" width="10.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="120.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.19921875" style="1"/>
+    <col min="2" max="2" width="12.19921875" style="1" customWidth="1"/>
+    <col min="3" max="4" width="9.19921875" style="1"/>
+    <col min="5" max="5" width="10.19921875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.19921875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="120.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.19921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="8" customFormat="1">
       <c r="A1" s="8" t="s">
         <v>10</v>
       </c>
@@ -4905,7 +4940,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -4928,7 +4963,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3" s="1">
         <v>70291</v>
       </c>
@@ -4951,7 +4986,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
         <v>70286</v>
       </c>
@@ -4974,7 +5009,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5" s="1">
         <v>70296</v>
       </c>
@@ -4997,7 +5032,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6" s="1">
         <v>70176</v>
       </c>
@@ -5020,7 +5055,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7" s="1">
         <v>70126</v>
       </c>
@@ -5043,7 +5078,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="A8" s="1">
         <v>70131</v>
       </c>
@@ -5066,7 +5101,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7">
       <c r="A9" s="1">
         <v>70136</v>
       </c>
@@ -5089,7 +5124,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7">
       <c r="A10" s="1">
         <v>70141</v>
       </c>
@@ -5112,7 +5147,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7">
       <c r="A11" s="1">
         <v>70146</v>
       </c>
@@ -5135,7 +5170,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7">
       <c r="A12" s="1">
         <v>70151</v>
       </c>
@@ -5158,7 +5193,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7">
       <c r="A13" s="1">
         <v>70156</v>
       </c>
@@ -5181,7 +5216,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7">
       <c r="A14" s="1">
         <v>70161</v>
       </c>
@@ -5204,7 +5239,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7">
       <c r="A15" s="1">
         <v>70166</v>
       </c>
@@ -5227,7 +5262,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7">
       <c r="A16" s="1">
         <v>70171</v>
       </c>
@@ -5250,7 +5285,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7">
       <c r="A17" s="1">
         <v>70191</v>
       </c>
@@ -5273,7 +5308,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7">
       <c r="A18" s="1">
         <v>70181</v>
       </c>
@@ -5296,7 +5331,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7">
       <c r="A19" s="1">
         <v>70186</v>
       </c>
@@ -5319,7 +5354,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7">
       <c r="A20" s="1">
         <v>70401</v>
       </c>
@@ -5342,7 +5377,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7">
       <c r="A21" s="1">
         <v>70406</v>
       </c>
@@ -5365,7 +5400,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7">
       <c r="A22" s="1">
         <v>70301</v>
       </c>
@@ -5388,7 +5423,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7">
       <c r="A23" s="1">
         <v>70411</v>
       </c>
@@ -5411,7 +5446,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7">
       <c r="A24" s="1">
         <v>70306</v>
       </c>
@@ -5434,7 +5469,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7">
       <c r="A25" s="1">
         <v>70416</v>
       </c>
@@ -5457,7 +5492,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7">
       <c r="A26" s="1">
         <v>70421</v>
       </c>
@@ -5480,7 +5515,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7">
       <c r="A27" s="1">
         <v>70426</v>
       </c>
@@ -5503,7 +5538,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7">
       <c r="A28" s="1">
         <v>70431</v>
       </c>
@@ -5526,7 +5561,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7">
       <c r="A29" s="1">
         <v>70436</v>
       </c>
@@ -5549,7 +5584,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7">
       <c r="A30" s="1">
         <v>70441</v>
       </c>
@@ -5572,7 +5607,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7">
       <c r="A31" s="1">
         <v>70446</v>
       </c>
@@ -5595,7 +5630,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7">
       <c r="A32" s="1">
         <v>70196</v>
       </c>
@@ -5618,7 +5653,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7">
       <c r="A33" s="1">
         <v>70201</v>
       </c>
@@ -5641,7 +5676,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7">
       <c r="A34" s="1">
         <v>71099</v>
       </c>
@@ -5664,7 +5699,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7">
       <c r="A35" s="1">
         <v>71100</v>
       </c>
@@ -5687,7 +5722,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7">
       <c r="A36" s="1">
         <v>70311</v>
       </c>
@@ -5710,7 +5745,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7">
       <c r="A37" s="1">
         <v>70316</v>
       </c>
@@ -5733,7 +5768,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7">
       <c r="A38" s="1">
         <v>70451</v>
       </c>
@@ -5756,7 +5791,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7">
       <c r="A39" s="1">
         <v>70321</v>
       </c>
@@ -5779,7 +5814,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7">
       <c r="A40" s="1">
         <v>70206</v>
       </c>
@@ -5802,7 +5837,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7">
       <c r="A41" s="1">
         <v>70211</v>
       </c>
@@ -5825,7 +5860,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7">
       <c r="A42" s="1">
         <v>70456</v>
       </c>
@@ -5848,7 +5883,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7">
       <c r="A43" s="1">
         <v>70216</v>
       </c>
@@ -5871,7 +5906,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7">
       <c r="A44" s="1">
         <v>70326</v>
       </c>
@@ -5894,7 +5929,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7">
       <c r="A45" s="1">
         <v>70331</v>
       </c>
@@ -5917,7 +5952,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7">
       <c r="A46" s="1">
         <v>70461</v>
       </c>
@@ -5940,7 +5975,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7">
       <c r="A47" s="1">
         <v>70336</v>
       </c>
@@ -5963,7 +5998,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7">
       <c r="A48" s="1">
         <v>70341</v>
       </c>
@@ -5986,7 +6021,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7">
       <c r="A49" s="1">
         <v>70346</v>
       </c>
@@ -6009,7 +6044,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7">
       <c r="A50" s="1">
         <v>70466</v>
       </c>
@@ -6032,7 +6067,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7">
       <c r="A51" s="1">
         <v>70351</v>
       </c>
@@ -6055,7 +6090,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7">
       <c r="A52" s="1">
         <v>70221</v>
       </c>
@@ -6078,7 +6113,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7">
       <c r="A53" s="1">
         <v>70226</v>
       </c>
@@ -6101,7 +6136,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7">
       <c r="A54" s="1">
         <v>70471</v>
       </c>
@@ -6124,7 +6159,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7">
       <c r="A55" s="1">
         <v>70231</v>
       </c>
@@ -6147,7 +6182,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7">
       <c r="A56" s="1">
         <v>70236</v>
       </c>
@@ -6170,7 +6205,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7">
       <c r="A57" s="1">
         <v>70241</v>
       </c>
@@ -6193,7 +6228,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7">
       <c r="A58" s="1">
         <v>70476</v>
       </c>
@@ -6216,7 +6251,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7">
       <c r="A59" s="1">
         <v>70246</v>
       </c>
@@ -6239,7 +6274,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7">
       <c r="A60" s="1">
         <v>70251</v>
       </c>
@@ -6262,7 +6297,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7">
       <c r="A61" s="1">
         <v>70256</v>
       </c>
@@ -6285,7 +6320,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7">
       <c r="A62" s="1">
         <v>70481</v>
       </c>
@@ -6308,7 +6343,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7">
       <c r="A63" s="1">
         <v>70261</v>
       </c>
@@ -6331,7 +6366,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7">
       <c r="A64" s="1">
         <v>70356</v>
       </c>
@@ -6354,7 +6389,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7">
       <c r="A65" s="1">
         <v>70361</v>
       </c>
@@ -6377,7 +6412,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7">
       <c r="A66" s="1">
         <v>70486</v>
       </c>
@@ -6400,7 +6435,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7">
       <c r="A67" s="1">
         <v>70366</v>
       </c>
@@ -6423,7 +6458,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7">
       <c r="A68" s="1">
         <v>70371</v>
       </c>
@@ -6446,7 +6481,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7">
       <c r="A69" s="1">
         <v>70376</v>
       </c>
@@ -6469,7 +6504,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7">
       <c r="A70" s="1">
         <v>70491</v>
       </c>
@@ -6492,7 +6527,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7">
       <c r="A71" s="1">
         <v>70381</v>
       </c>
@@ -6515,7 +6550,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7">
       <c r="A72" s="1">
         <v>70496</v>
       </c>
@@ -6538,7 +6573,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7">
       <c r="A73" s="1">
         <v>70501</v>
       </c>
@@ -6561,7 +6596,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7">
       <c r="A74" s="1">
         <v>70506</v>
       </c>
@@ -6584,7 +6619,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7">
       <c r="A75" s="1">
         <v>70511</v>
       </c>
@@ -6607,7 +6642,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7">
       <c r="A76" s="1">
         <v>70516</v>
       </c>
@@ -6630,7 +6665,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7">
       <c r="A77" s="1">
         <v>70521</v>
       </c>
@@ -6653,7 +6688,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7">
       <c r="A78" s="1">
         <v>70526</v>
       </c>
@@ -6676,7 +6711,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7">
       <c r="A79" s="1">
         <v>70531</v>
       </c>
@@ -6699,7 +6734,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7">
       <c r="A80" s="1">
         <v>70536</v>
       </c>
@@ -6722,7 +6757,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:7">
       <c r="A81" s="1">
         <v>70541</v>
       </c>
@@ -6745,7 +6780,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7">
       <c r="A82" s="1">
         <v>70546</v>
       </c>
@@ -6768,7 +6803,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7">
       <c r="A83" s="1">
         <v>70551</v>
       </c>
@@ -6791,7 +6826,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7">
       <c r="A84" s="1">
         <v>70556</v>
       </c>
@@ -6814,7 +6849,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:7">
       <c r="A85" s="1">
         <v>70561</v>
       </c>
@@ -6837,7 +6872,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7">
       <c r="A86" s="1">
         <v>70566</v>
       </c>
@@ -6860,7 +6895,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:7">
       <c r="A87" s="1">
         <v>70571</v>
       </c>
@@ -6883,7 +6918,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7">
       <c r="A88" s="1">
         <v>70576</v>
       </c>
@@ -6906,7 +6941,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:7">
       <c r="A89" s="1">
         <v>70581</v>
       </c>
@@ -6929,7 +6964,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:7">
       <c r="A90" s="1">
         <v>70586</v>
       </c>
@@ -6952,7 +6987,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:7">
       <c r="A91" s="1">
         <v>70591</v>
       </c>
@@ -6975,7 +7010,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:7">
       <c r="A92" s="1">
         <v>70596</v>
       </c>
@@ -6998,7 +7033,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:7">
       <c r="A93" s="1">
         <v>70601</v>
       </c>
@@ -7021,7 +7056,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:7">
       <c r="A94" s="1">
         <v>70606</v>
       </c>
@@ -7044,7 +7079,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:7">
       <c r="A95" s="1">
         <v>70611</v>
       </c>
@@ -7067,7 +7102,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7">
       <c r="A96" s="1">
         <v>70616</v>
       </c>
@@ -7090,7 +7125,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:7">
       <c r="A97" s="1">
         <v>70621</v>
       </c>
@@ -7113,7 +7148,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:7">
       <c r="A98" s="1">
         <v>70626</v>
       </c>
@@ -7136,7 +7171,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:7">
       <c r="A99" s="1">
         <v>70631</v>
       </c>
@@ -7159,7 +7194,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:7">
       <c r="A100" s="1">
         <v>70636</v>
       </c>
@@ -7182,7 +7217,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:7">
       <c r="A101" s="1">
         <v>70641</v>
       </c>
@@ -7205,7 +7240,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:7">
       <c r="A102" s="1">
         <v>70646</v>
       </c>
@@ -7228,7 +7263,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:7">
       <c r="A103" s="1">
         <v>70651</v>
       </c>
@@ -7251,7 +7286,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:7">
       <c r="A104" s="1">
         <v>70656</v>
       </c>
@@ -7274,7 +7309,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:7">
       <c r="A105" s="1">
         <v>70661</v>
       </c>
@@ -7297,7 +7332,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:7">
       <c r="A106" s="1">
         <v>70666</v>
       </c>
@@ -7320,7 +7355,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:7">
       <c r="A107" s="1">
         <v>70671</v>
       </c>
@@ -7343,7 +7378,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:7">
       <c r="A108" s="1">
         <v>70676</v>
       </c>
@@ -7366,7 +7401,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:7">
       <c r="A109" s="1">
         <v>70681</v>
       </c>
@@ -7389,7 +7424,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:7">
       <c r="A110" s="1">
         <v>70686</v>
       </c>
@@ -7412,7 +7447,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:7">
       <c r="A111" s="1">
         <v>70691</v>
       </c>
@@ -7435,7 +7470,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:7">
       <c r="A112" s="1">
         <v>70696</v>
       </c>
@@ -7458,7 +7493,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:7">
       <c r="A113" s="1">
         <v>70701</v>
       </c>
@@ -7481,7 +7516,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:7">
       <c r="A114" s="1">
         <v>70706</v>
       </c>
@@ -7504,7 +7539,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:7">
       <c r="A115" s="1">
         <v>71101</v>
       </c>
@@ -7527,7 +7562,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:7">
       <c r="A116" s="1">
         <v>71106</v>
       </c>
@@ -7550,7 +7585,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:7">
       <c r="A117" s="1">
         <v>71111</v>
       </c>
@@ -7573,7 +7608,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:7">
       <c r="A118" s="1">
         <v>71116</v>
       </c>
@@ -7596,7 +7631,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:7">
       <c r="A119" s="1">
         <v>71121</v>
       </c>
@@ -7619,7 +7654,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:7">
       <c r="A120" s="1">
         <v>71126</v>
       </c>
@@ -7642,7 +7677,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:7">
       <c r="A121" s="1">
         <v>71131</v>
       </c>
@@ -7665,7 +7700,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:7">
       <c r="A122" s="1">
         <v>71136</v>
       </c>
@@ -7688,7 +7723,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:7">
       <c r="A123" s="1">
         <v>71141</v>
       </c>
@@ -7711,7 +7746,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:7">
       <c r="A124" s="1">
         <v>71146</v>
       </c>
@@ -7734,7 +7769,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:7">
       <c r="A125" s="1">
         <v>71151</v>
       </c>
@@ -7757,7 +7792,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:7">
       <c r="A126" s="1">
         <v>71156</v>
       </c>
@@ -7780,7 +7815,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:7">
       <c r="A127" s="1">
         <v>71161</v>
       </c>
@@ -7803,7 +7838,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:7">
       <c r="A128" s="1">
         <v>71166</v>
       </c>
@@ -7826,7 +7861,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:7">
       <c r="A129" s="1">
         <v>71171</v>
       </c>
@@ -7849,7 +7884,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:7">
       <c r="A130" s="1">
         <v>71176</v>
       </c>
@@ -7872,7 +7907,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:7">
       <c r="A131" s="1">
         <v>71181</v>
       </c>
@@ -7895,7 +7930,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:7">
       <c r="A132" s="1">
         <v>71186</v>
       </c>
@@ -7918,7 +7953,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:7">
       <c r="A133" s="1">
         <v>71191</v>
       </c>
@@ -7941,7 +7976,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:7">
       <c r="A134" s="1">
         <v>71196</v>
       </c>
@@ -7964,7 +7999,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:7">
       <c r="A135" s="1">
         <v>71201</v>
       </c>
@@ -7987,7 +8022,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:7">
       <c r="A136" s="1">
         <v>71206</v>
       </c>
@@ -8010,7 +8045,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:7">
       <c r="A137" s="1">
         <v>71401</v>
       </c>
@@ -8033,7 +8068,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:7">
       <c r="A138" s="1">
         <v>71406</v>
       </c>
@@ -8056,7 +8091,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:7">
       <c r="A139" s="1">
         <v>71411</v>
       </c>
@@ -8079,7 +8114,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:7">
       <c r="A140" s="1">
         <v>71416</v>
       </c>
@@ -8102,7 +8137,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:7">
       <c r="A141" s="1">
         <v>71421</v>
       </c>
@@ -8125,7 +8160,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:7">
       <c r="A142" s="1">
         <v>71426</v>
       </c>
@@ -8148,7 +8183,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:7">
       <c r="A143" s="1">
         <v>71431</v>
       </c>
@@ -8171,7 +8206,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:7">
       <c r="A144" s="1">
         <v>71436</v>
       </c>
@@ -8194,7 +8229,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:7">
       <c r="A145" s="1">
         <v>71441</v>
       </c>
@@ -8217,7 +8252,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:7">
       <c r="A146" s="1">
         <v>71446</v>
       </c>
@@ -8240,7 +8275,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:7">
       <c r="A147" s="1">
         <v>71451</v>
       </c>
@@ -8263,7 +8298,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:7">
       <c r="A148" s="1">
         <v>71456</v>
       </c>
@@ -8286,7 +8321,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:7">
       <c r="A149" s="1">
         <v>71461</v>
       </c>
@@ -8309,7 +8344,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:7">
       <c r="A150" s="1">
         <v>71466</v>
       </c>
@@ -8332,7 +8367,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:7">
       <c r="A151" s="1">
         <v>71471</v>
       </c>
@@ -8355,7 +8390,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:7">
       <c r="A152" s="1">
         <v>71476</v>
       </c>
@@ -8378,7 +8413,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:7">
       <c r="A153" s="1">
         <v>71481</v>
       </c>
@@ -8401,7 +8436,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:7">
       <c r="A154" s="1">
         <v>71486</v>
       </c>
@@ -8424,7 +8459,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:7">
       <c r="A155" s="1">
         <v>71491</v>
       </c>
@@ -8447,7 +8482,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:7">
       <c r="A156" s="1">
         <v>71496</v>
       </c>
@@ -8470,7 +8505,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:7">
       <c r="A157" s="1">
         <v>71501</v>
       </c>
@@ -8493,7 +8528,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:7">
       <c r="A158" s="1">
         <v>71506</v>
       </c>
@@ -8516,7 +8551,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:7">
       <c r="A159" s="1">
         <v>71802</v>
       </c>
@@ -8539,7 +8574,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:7">
       <c r="A160" s="1">
         <v>71807</v>
       </c>
@@ -8562,7 +8597,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:7">
       <c r="A161" s="1">
         <v>71812</v>
       </c>
@@ -8585,7 +8620,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:7">
       <c r="A162" s="1">
         <v>71817</v>
       </c>
@@ -8608,7 +8643,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:7">
       <c r="A163" s="1">
         <v>71822</v>
       </c>
@@ -8631,7 +8666,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:7">
       <c r="A164" s="1">
         <v>71827</v>
       </c>
@@ -8654,7 +8689,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:7">
       <c r="A165" s="1">
         <v>71832</v>
       </c>
@@ -8677,7 +8712,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:7">
       <c r="A166" s="1">
         <v>71837</v>
       </c>
@@ -8700,7 +8735,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:7">
       <c r="A167" s="1">
         <v>71842</v>
       </c>
@@ -8723,7 +8758,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:7">
       <c r="A168" s="1">
         <v>71847</v>
       </c>
@@ -8746,7 +8781,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:7">
       <c r="A169" s="1">
         <v>71852</v>
       </c>
@@ -8769,7 +8804,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:7">
       <c r="A170" s="1">
         <v>71857</v>
       </c>
@@ -8792,7 +8827,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:7">
       <c r="A171" s="1">
         <v>71862</v>
       </c>
@@ -8815,7 +8850,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:7">
       <c r="A172" s="1">
         <v>71867</v>
       </c>
@@ -8838,7 +8873,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:7">
       <c r="A173" s="1">
         <v>71872</v>
       </c>
@@ -8861,7 +8896,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:7">
       <c r="A174" s="1">
         <v>71877</v>
       </c>
@@ -8884,7 +8919,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:7">
       <c r="A175" s="1">
         <v>71882</v>
       </c>
@@ -8907,7 +8942,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:7">
       <c r="A176" s="1">
         <v>71887</v>
       </c>
@@ -8930,7 +8965,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:7">
       <c r="A177" s="1">
         <v>70711</v>
       </c>
@@ -8953,7 +8988,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:7">
       <c r="A178" s="1">
         <v>70716</v>
       </c>
@@ -8976,7 +9011,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:7">
       <c r="A179" s="1">
         <v>70721</v>
       </c>
@@ -8999,7 +9034,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:7">
       <c r="A180" s="1">
         <v>70726</v>
       </c>
@@ -9022,7 +9057,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:7">
       <c r="A181" s="1">
         <v>70731</v>
       </c>
@@ -9045,7 +9080,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:7">
       <c r="A182" s="1">
         <v>70736</v>
       </c>
@@ -9068,7 +9103,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:7">
       <c r="A183" s="1">
         <v>70741</v>
       </c>
@@ -9091,7 +9126,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:7">
       <c r="A184" s="1">
         <v>70746</v>
       </c>
@@ -9114,7 +9149,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:7">
       <c r="A185" s="1">
         <v>71216</v>
       </c>
@@ -9137,7 +9172,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:7">
       <c r="A186" s="1">
         <v>71221</v>
       </c>
@@ -9160,7 +9195,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:7">
       <c r="A187" s="1">
         <v>71226</v>
       </c>
@@ -9183,7 +9218,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:7">
       <c r="A188" s="1">
         <v>71231</v>
       </c>
@@ -9206,7 +9241,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:7">
       <c r="A189" s="1">
         <v>71236</v>
       </c>
@@ -9229,7 +9264,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:7">
       <c r="A190" s="1">
         <v>71516</v>
       </c>
@@ -9252,7 +9287,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:7">
       <c r="A191" s="1">
         <v>71521</v>
       </c>
@@ -9275,7 +9310,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:7">
       <c r="A192" s="1">
         <v>71526</v>
       </c>
@@ -9298,7 +9333,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:7">
       <c r="A193" s="1">
         <v>71531</v>
       </c>
@@ -9321,7 +9356,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:7">
       <c r="A194" s="1">
         <v>71536</v>
       </c>
@@ -9344,7 +9379,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:7">
       <c r="A195" s="1">
         <v>70751</v>
       </c>
@@ -9367,7 +9402,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:7">
       <c r="A196" s="1">
         <v>70756</v>
       </c>
@@ -9390,7 +9425,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:7">
       <c r="A197" s="1">
         <v>70761</v>
       </c>
@@ -9413,7 +9448,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:7">
       <c r="A198" s="1">
         <v>70766</v>
       </c>
@@ -9436,7 +9471,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:7">
       <c r="A199" s="1">
         <v>70771</v>
       </c>
@@ -9459,7 +9494,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:7">
       <c r="A200" s="1">
         <v>70776</v>
       </c>
@@ -9482,7 +9517,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:7">
       <c r="A201" s="1">
         <v>70781</v>
       </c>
@@ -9505,7 +9540,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:7">
       <c r="A202" s="1">
         <v>70786</v>
       </c>
@@ -9528,7 +9563,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:7">
       <c r="A203" s="1">
         <v>70791</v>
       </c>
@@ -9551,7 +9586,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:7">
       <c r="A204" s="1">
         <v>70796</v>
       </c>
@@ -9574,7 +9609,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:7">
       <c r="A205" s="1">
         <v>70801</v>
       </c>
@@ -9597,7 +9632,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:7">
       <c r="A206" s="1">
         <v>70806</v>
       </c>
@@ -9620,7 +9655,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:7">
       <c r="A207" s="1">
         <v>70811</v>
       </c>
@@ -9643,7 +9678,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:7">
       <c r="A208" s="1">
         <v>70816</v>
       </c>
@@ -9666,7 +9701,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:7">
       <c r="A209" s="1">
         <v>70821</v>
       </c>
@@ -9689,7 +9724,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:7">
       <c r="A210" s="1">
         <v>70826</v>
       </c>
@@ -9712,7 +9747,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:7">
       <c r="A211" s="1">
         <v>70831</v>
       </c>
@@ -9735,7 +9770,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:7">
       <c r="A212" s="1">
         <v>70836</v>
       </c>
@@ -9758,7 +9793,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:7">
       <c r="A213" s="1">
         <v>70841</v>
       </c>
@@ -9781,7 +9816,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:7">
       <c r="A214" s="1">
         <v>70846</v>
       </c>
@@ -9804,7 +9839,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:7">
       <c r="A215" s="1">
         <v>70851</v>
       </c>
@@ -9827,7 +9862,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:7">
       <c r="A216" s="1">
         <v>70856</v>
       </c>
@@ -9850,7 +9885,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:7">
       <c r="A217" s="1">
         <v>70861</v>
       </c>
@@ -9873,7 +9908,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:7">
       <c r="A218" s="1">
         <v>70866</v>
       </c>
@@ -9896,7 +9931,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:7">
       <c r="A219" s="1">
         <v>70871</v>
       </c>
@@ -9919,7 +9954,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:7">
       <c r="A220" s="1">
         <v>70876</v>
       </c>
@@ -9942,7 +9977,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:7">
       <c r="A221" s="1">
         <v>70881</v>
       </c>
@@ -9965,7 +10000,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:7">
       <c r="A222" s="1">
         <v>70886</v>
       </c>
@@ -9988,7 +10023,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:7">
       <c r="A223" s="1">
         <v>70891</v>
       </c>
@@ -10011,7 +10046,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:7">
       <c r="A224" s="1">
         <v>70896</v>
       </c>
@@ -10034,7 +10069,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:7">
       <c r="A225" s="1">
         <v>70901</v>
       </c>
@@ -10057,7 +10092,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:7">
       <c r="A226" s="1">
         <v>70906</v>
       </c>
@@ -10080,7 +10115,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:7">
       <c r="A227" s="1">
         <v>70911</v>
       </c>
@@ -10103,7 +10138,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:7">
       <c r="A228" s="1">
         <v>70916</v>
       </c>
@@ -10126,7 +10161,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:7">
       <c r="A229" s="1">
         <v>70921</v>
       </c>
@@ -10149,7 +10184,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:7">
       <c r="A230" s="1">
         <v>70926</v>
       </c>
@@ -10172,7 +10207,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:7">
       <c r="A231" s="1">
         <v>70931</v>
       </c>
@@ -10195,7 +10230,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:7">
       <c r="A232" s="1">
         <v>70936</v>
       </c>
@@ -10218,7 +10253,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:7">
       <c r="A233" s="1">
         <v>70941</v>
       </c>
@@ -10241,7 +10276,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:7">
       <c r="A234" s="1">
         <v>70946</v>
       </c>
@@ -10264,7 +10299,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:7">
       <c r="A235" s="1">
         <v>70951</v>
       </c>
@@ -10287,7 +10322,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:7">
       <c r="A236" s="1">
         <v>70956</v>
       </c>
@@ -10310,7 +10345,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:7">
       <c r="A237" s="1">
         <v>70961</v>
       </c>
@@ -10333,7 +10368,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:7">
       <c r="A238" s="1">
         <v>71241</v>
       </c>
@@ -10356,7 +10391,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:7">
       <c r="A239" s="1">
         <v>71246</v>
       </c>
@@ -10379,7 +10414,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:7">
       <c r="A240" s="1">
         <v>71251</v>
       </c>
@@ -10402,7 +10437,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:7">
       <c r="A241" s="1">
         <v>71256</v>
       </c>
@@ -10425,7 +10460,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:7">
       <c r="A242" s="1">
         <v>71261</v>
       </c>
@@ -10448,7 +10483,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:7">
       <c r="A243" s="1">
         <v>71266</v>
       </c>
@@ -10471,7 +10506,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:7">
       <c r="A244" s="1">
         <v>71271</v>
       </c>
@@ -10494,7 +10529,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:7">
       <c r="A245" s="1">
         <v>71276</v>
       </c>
@@ -10517,7 +10552,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:7">
       <c r="A246" s="1">
         <v>71281</v>
       </c>
@@ -10540,7 +10575,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:7">
       <c r="A247" s="1">
         <v>71286</v>
       </c>
@@ -10563,7 +10598,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:7">
       <c r="A248" s="1">
         <v>71291</v>
       </c>
@@ -10586,7 +10621,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:7">
       <c r="A249" s="1">
         <v>71296</v>
       </c>
@@ -10609,7 +10644,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:7">
       <c r="A250" s="1">
         <v>71301</v>
       </c>
@@ -10632,7 +10667,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:7">
       <c r="A251" s="1">
         <v>71306</v>
       </c>
@@ -10655,7 +10690,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:7">
       <c r="A252" s="1">
         <v>71311</v>
       </c>
@@ -10678,7 +10713,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:7">
       <c r="A253" s="1">
         <v>71316</v>
       </c>
@@ -10701,7 +10736,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:7">
       <c r="A254" s="1">
         <v>71321</v>
       </c>
@@ -10724,7 +10759,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:7">
       <c r="A255" s="1">
         <v>71326</v>
       </c>
@@ -10747,7 +10782,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:7">
       <c r="A256" s="1">
         <v>71331</v>
       </c>
@@ -10770,7 +10805,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:7">
       <c r="A257" s="1">
         <v>71336</v>
       </c>
@@ -10793,7 +10828,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:7">
       <c r="A258" s="1">
         <v>71341</v>
       </c>
@@ -10816,7 +10851,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:7">
       <c r="A259" s="1">
         <v>71346</v>
       </c>
@@ -10839,7 +10874,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:7">
       <c r="A260" s="1">
         <v>71541</v>
       </c>
@@ -10862,7 +10897,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:7">
       <c r="A261" s="1">
         <v>71546</v>
       </c>
@@ -10885,7 +10920,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:7">
       <c r="A262" s="1">
         <v>71551</v>
       </c>
@@ -10908,7 +10943,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:7">
       <c r="A263" s="1">
         <v>71556</v>
       </c>
@@ -10931,7 +10966,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:7">
       <c r="A264" s="1">
         <v>71561</v>
       </c>
@@ -10954,7 +10989,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:7">
       <c r="A265" s="1">
         <v>71566</v>
       </c>
@@ -10977,7 +11012,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:7">
       <c r="A266" s="1">
         <v>71571</v>
       </c>
@@ -11000,7 +11035,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:7">
       <c r="A267" s="1">
         <v>71576</v>
       </c>
@@ -11023,7 +11058,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:7">
       <c r="A268" s="1">
         <v>71581</v>
       </c>
@@ -11046,7 +11081,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:7">
       <c r="A269" s="1">
         <v>71586</v>
       </c>
@@ -11069,7 +11104,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:7">
       <c r="A270" s="1">
         <v>71591</v>
       </c>
@@ -11092,7 +11127,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:7">
       <c r="A271" s="1">
         <v>71596</v>
       </c>
@@ -11115,7 +11150,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:7">
       <c r="A272" s="1">
         <v>71601</v>
       </c>
@@ -11138,7 +11173,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:7">
       <c r="A273" s="1">
         <v>71606</v>
       </c>
@@ -11161,7 +11196,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:7">
       <c r="A274" s="1">
         <v>71611</v>
       </c>
@@ -11184,7 +11219,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:7">
       <c r="A275" s="1">
         <v>71616</v>
       </c>
@@ -11207,7 +11242,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:7">
       <c r="A276" s="1">
         <v>71621</v>
       </c>
@@ -11230,7 +11265,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:7">
       <c r="A277" s="1">
         <v>71626</v>
       </c>
@@ -11253,7 +11288,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:7">
       <c r="A278" s="1">
         <v>71631</v>
       </c>
@@ -11276,7 +11311,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:7">
       <c r="A279" s="1">
         <v>71636</v>
       </c>
@@ -11299,7 +11334,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:7">
       <c r="A280" s="1">
         <v>71641</v>
       </c>
@@ -11322,7 +11357,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:7">
       <c r="A281" s="1">
         <v>71646</v>
       </c>
@@ -11345,7 +11380,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:7">
       <c r="A282" s="1">
         <v>71892</v>
       </c>
@@ -11368,7 +11403,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:7">
       <c r="A283" s="1">
         <v>71897</v>
       </c>
@@ -11391,7 +11426,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:7">
       <c r="A284" s="1">
         <v>71902</v>
       </c>
@@ -11414,7 +11449,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:7">
       <c r="A285" s="1">
         <v>71907</v>
       </c>
@@ -11437,7 +11472,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:7">
       <c r="A286" s="1">
         <v>71912</v>
       </c>
@@ -11460,7 +11495,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:7">
       <c r="A287" s="1">
         <v>71917</v>
       </c>
@@ -11483,7 +11518,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:7">
       <c r="A288" s="1">
         <v>71922</v>
       </c>
@@ -11506,7 +11541,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:7">
       <c r="A289" s="1">
         <v>71927</v>
       </c>
@@ -11529,7 +11564,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:7">
       <c r="A290" s="1">
         <v>71932</v>
       </c>
@@ -11552,7 +11587,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:7">
       <c r="A291" s="1">
         <v>71937</v>
       </c>
@@ -11575,7 +11610,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:7">
       <c r="A292" s="1">
         <v>71942</v>
       </c>
@@ -11598,7 +11633,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:7">
       <c r="A293" s="1">
         <v>71947</v>
       </c>
@@ -11621,7 +11656,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:7">
       <c r="A294" s="1">
         <v>71952</v>
       </c>
@@ -11644,7 +11679,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:7">
       <c r="A295" s="1">
         <v>71957</v>
       </c>
@@ -11667,7 +11702,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:7">
       <c r="A296" s="1">
         <v>71962</v>
       </c>
@@ -11690,7 +11725,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:7">
       <c r="A297" s="1">
         <v>71967</v>
       </c>
@@ -11713,7 +11748,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:7">
       <c r="A298" s="1">
         <v>71972</v>
       </c>
@@ -11736,7 +11771,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:7">
       <c r="A299" s="1">
         <v>71977</v>
       </c>
@@ -11759,7 +11794,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:7">
       <c r="A300" s="1">
         <v>70966</v>
       </c>
@@ -11782,7 +11817,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:7">
       <c r="A301" s="1">
         <v>70971</v>
       </c>
@@ -11805,7 +11840,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:7">
       <c r="A302" s="1">
         <v>70976</v>
       </c>
@@ -11828,7 +11863,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:7">
       <c r="A303" s="1">
         <v>70981</v>
       </c>
@@ -11851,7 +11886,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:7">
       <c r="A304" s="1">
         <v>70986</v>
       </c>
@@ -11874,7 +11909,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:7">
       <c r="A305" s="1">
         <v>70991</v>
       </c>
@@ -11897,7 +11932,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:7">
       <c r="A306" s="1">
         <v>70996</v>
       </c>
@@ -11920,7 +11955,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:7">
       <c r="A307" s="1">
         <v>71001</v>
       </c>
@@ -11943,7 +11978,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:7">
       <c r="A308" s="1">
         <v>71351</v>
       </c>
@@ -11966,7 +12001,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:7">
       <c r="A309" s="1">
         <v>71356</v>
       </c>
@@ -11989,7 +12024,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:7">
       <c r="A310" s="1">
         <v>71361</v>
       </c>
@@ -12012,7 +12047,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:7">
       <c r="A311" s="1">
         <v>71366</v>
       </c>
@@ -12035,7 +12070,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:7">
       <c r="A312" s="1">
         <v>71371</v>
       </c>
@@ -12058,7 +12093,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:7">
       <c r="A313" s="1">
         <v>71651</v>
       </c>
@@ -12081,7 +12116,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:7">
       <c r="A314" s="1">
         <v>71656</v>
       </c>
@@ -12104,7 +12139,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:7">
       <c r="A315" s="1">
         <v>71661</v>
       </c>
@@ -12127,7 +12162,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:7">
       <c r="A316" s="1">
         <v>71666</v>
       </c>
@@ -12150,7 +12185,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:7">
       <c r="A317" s="1">
         <v>71671</v>
       </c>
@@ -12180,7 +12215,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C325"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12188,204 +12223,204 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="11"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="14"/>
-    <col min="2" max="2" width="11.140625" style="14" customWidth="1"/>
-    <col min="3" max="3" width="144.85546875" style="14" customWidth="1"/>
-    <col min="4" max="257" width="9.140625" style="15"/>
-    <col min="258" max="258" width="11.140625" style="15" customWidth="1"/>
-    <col min="259" max="259" width="144.85546875" style="15" customWidth="1"/>
-    <col min="260" max="513" width="9.140625" style="15"/>
-    <col min="514" max="514" width="11.140625" style="15" customWidth="1"/>
-    <col min="515" max="515" width="144.85546875" style="15" customWidth="1"/>
-    <col min="516" max="769" width="9.140625" style="15"/>
-    <col min="770" max="770" width="11.140625" style="15" customWidth="1"/>
-    <col min="771" max="771" width="144.85546875" style="15" customWidth="1"/>
-    <col min="772" max="1025" width="9.140625" style="15"/>
-    <col min="1026" max="1026" width="11.140625" style="15" customWidth="1"/>
-    <col min="1027" max="1027" width="144.85546875" style="15" customWidth="1"/>
-    <col min="1028" max="1281" width="9.140625" style="15"/>
-    <col min="1282" max="1282" width="11.140625" style="15" customWidth="1"/>
-    <col min="1283" max="1283" width="144.85546875" style="15" customWidth="1"/>
-    <col min="1284" max="1537" width="9.140625" style="15"/>
-    <col min="1538" max="1538" width="11.140625" style="15" customWidth="1"/>
-    <col min="1539" max="1539" width="144.85546875" style="15" customWidth="1"/>
-    <col min="1540" max="1793" width="9.140625" style="15"/>
-    <col min="1794" max="1794" width="11.140625" style="15" customWidth="1"/>
-    <col min="1795" max="1795" width="144.85546875" style="15" customWidth="1"/>
-    <col min="1796" max="2049" width="9.140625" style="15"/>
-    <col min="2050" max="2050" width="11.140625" style="15" customWidth="1"/>
-    <col min="2051" max="2051" width="144.85546875" style="15" customWidth="1"/>
-    <col min="2052" max="2305" width="9.140625" style="15"/>
-    <col min="2306" max="2306" width="11.140625" style="15" customWidth="1"/>
-    <col min="2307" max="2307" width="144.85546875" style="15" customWidth="1"/>
-    <col min="2308" max="2561" width="9.140625" style="15"/>
-    <col min="2562" max="2562" width="11.140625" style="15" customWidth="1"/>
-    <col min="2563" max="2563" width="144.85546875" style="15" customWidth="1"/>
-    <col min="2564" max="2817" width="9.140625" style="15"/>
-    <col min="2818" max="2818" width="11.140625" style="15" customWidth="1"/>
-    <col min="2819" max="2819" width="144.85546875" style="15" customWidth="1"/>
-    <col min="2820" max="3073" width="9.140625" style="15"/>
-    <col min="3074" max="3074" width="11.140625" style="15" customWidth="1"/>
-    <col min="3075" max="3075" width="144.85546875" style="15" customWidth="1"/>
-    <col min="3076" max="3329" width="9.140625" style="15"/>
-    <col min="3330" max="3330" width="11.140625" style="15" customWidth="1"/>
-    <col min="3331" max="3331" width="144.85546875" style="15" customWidth="1"/>
-    <col min="3332" max="3585" width="9.140625" style="15"/>
-    <col min="3586" max="3586" width="11.140625" style="15" customWidth="1"/>
-    <col min="3587" max="3587" width="144.85546875" style="15" customWidth="1"/>
-    <col min="3588" max="3841" width="9.140625" style="15"/>
-    <col min="3842" max="3842" width="11.140625" style="15" customWidth="1"/>
-    <col min="3843" max="3843" width="144.85546875" style="15" customWidth="1"/>
-    <col min="3844" max="4097" width="9.140625" style="15"/>
-    <col min="4098" max="4098" width="11.140625" style="15" customWidth="1"/>
-    <col min="4099" max="4099" width="144.85546875" style="15" customWidth="1"/>
-    <col min="4100" max="4353" width="9.140625" style="15"/>
-    <col min="4354" max="4354" width="11.140625" style="15" customWidth="1"/>
-    <col min="4355" max="4355" width="144.85546875" style="15" customWidth="1"/>
-    <col min="4356" max="4609" width="9.140625" style="15"/>
-    <col min="4610" max="4610" width="11.140625" style="15" customWidth="1"/>
-    <col min="4611" max="4611" width="144.85546875" style="15" customWidth="1"/>
-    <col min="4612" max="4865" width="9.140625" style="15"/>
-    <col min="4866" max="4866" width="11.140625" style="15" customWidth="1"/>
-    <col min="4867" max="4867" width="144.85546875" style="15" customWidth="1"/>
-    <col min="4868" max="5121" width="9.140625" style="15"/>
-    <col min="5122" max="5122" width="11.140625" style="15" customWidth="1"/>
-    <col min="5123" max="5123" width="144.85546875" style="15" customWidth="1"/>
-    <col min="5124" max="5377" width="9.140625" style="15"/>
-    <col min="5378" max="5378" width="11.140625" style="15" customWidth="1"/>
-    <col min="5379" max="5379" width="144.85546875" style="15" customWidth="1"/>
-    <col min="5380" max="5633" width="9.140625" style="15"/>
-    <col min="5634" max="5634" width="11.140625" style="15" customWidth="1"/>
-    <col min="5635" max="5635" width="144.85546875" style="15" customWidth="1"/>
-    <col min="5636" max="5889" width="9.140625" style="15"/>
-    <col min="5890" max="5890" width="11.140625" style="15" customWidth="1"/>
-    <col min="5891" max="5891" width="144.85546875" style="15" customWidth="1"/>
-    <col min="5892" max="6145" width="9.140625" style="15"/>
-    <col min="6146" max="6146" width="11.140625" style="15" customWidth="1"/>
-    <col min="6147" max="6147" width="144.85546875" style="15" customWidth="1"/>
-    <col min="6148" max="6401" width="9.140625" style="15"/>
-    <col min="6402" max="6402" width="11.140625" style="15" customWidth="1"/>
-    <col min="6403" max="6403" width="144.85546875" style="15" customWidth="1"/>
-    <col min="6404" max="6657" width="9.140625" style="15"/>
-    <col min="6658" max="6658" width="11.140625" style="15" customWidth="1"/>
-    <col min="6659" max="6659" width="144.85546875" style="15" customWidth="1"/>
-    <col min="6660" max="6913" width="9.140625" style="15"/>
-    <col min="6914" max="6914" width="11.140625" style="15" customWidth="1"/>
-    <col min="6915" max="6915" width="144.85546875" style="15" customWidth="1"/>
-    <col min="6916" max="7169" width="9.140625" style="15"/>
-    <col min="7170" max="7170" width="11.140625" style="15" customWidth="1"/>
-    <col min="7171" max="7171" width="144.85546875" style="15" customWidth="1"/>
-    <col min="7172" max="7425" width="9.140625" style="15"/>
-    <col min="7426" max="7426" width="11.140625" style="15" customWidth="1"/>
-    <col min="7427" max="7427" width="144.85546875" style="15" customWidth="1"/>
-    <col min="7428" max="7681" width="9.140625" style="15"/>
-    <col min="7682" max="7682" width="11.140625" style="15" customWidth="1"/>
-    <col min="7683" max="7683" width="144.85546875" style="15" customWidth="1"/>
-    <col min="7684" max="7937" width="9.140625" style="15"/>
-    <col min="7938" max="7938" width="11.140625" style="15" customWidth="1"/>
-    <col min="7939" max="7939" width="144.85546875" style="15" customWidth="1"/>
-    <col min="7940" max="8193" width="9.140625" style="15"/>
-    <col min="8194" max="8194" width="11.140625" style="15" customWidth="1"/>
-    <col min="8195" max="8195" width="144.85546875" style="15" customWidth="1"/>
-    <col min="8196" max="8449" width="9.140625" style="15"/>
-    <col min="8450" max="8450" width="11.140625" style="15" customWidth="1"/>
-    <col min="8451" max="8451" width="144.85546875" style="15" customWidth="1"/>
-    <col min="8452" max="8705" width="9.140625" style="15"/>
-    <col min="8706" max="8706" width="11.140625" style="15" customWidth="1"/>
-    <col min="8707" max="8707" width="144.85546875" style="15" customWidth="1"/>
-    <col min="8708" max="8961" width="9.140625" style="15"/>
-    <col min="8962" max="8962" width="11.140625" style="15" customWidth="1"/>
-    <col min="8963" max="8963" width="144.85546875" style="15" customWidth="1"/>
-    <col min="8964" max="9217" width="9.140625" style="15"/>
-    <col min="9218" max="9218" width="11.140625" style="15" customWidth="1"/>
-    <col min="9219" max="9219" width="144.85546875" style="15" customWidth="1"/>
-    <col min="9220" max="9473" width="9.140625" style="15"/>
-    <col min="9474" max="9474" width="11.140625" style="15" customWidth="1"/>
-    <col min="9475" max="9475" width="144.85546875" style="15" customWidth="1"/>
-    <col min="9476" max="9729" width="9.140625" style="15"/>
-    <col min="9730" max="9730" width="11.140625" style="15" customWidth="1"/>
-    <col min="9731" max="9731" width="144.85546875" style="15" customWidth="1"/>
-    <col min="9732" max="9985" width="9.140625" style="15"/>
-    <col min="9986" max="9986" width="11.140625" style="15" customWidth="1"/>
-    <col min="9987" max="9987" width="144.85546875" style="15" customWidth="1"/>
-    <col min="9988" max="10241" width="9.140625" style="15"/>
-    <col min="10242" max="10242" width="11.140625" style="15" customWidth="1"/>
-    <col min="10243" max="10243" width="144.85546875" style="15" customWidth="1"/>
-    <col min="10244" max="10497" width="9.140625" style="15"/>
-    <col min="10498" max="10498" width="11.140625" style="15" customWidth="1"/>
-    <col min="10499" max="10499" width="144.85546875" style="15" customWidth="1"/>
-    <col min="10500" max="10753" width="9.140625" style="15"/>
-    <col min="10754" max="10754" width="11.140625" style="15" customWidth="1"/>
-    <col min="10755" max="10755" width="144.85546875" style="15" customWidth="1"/>
-    <col min="10756" max="11009" width="9.140625" style="15"/>
-    <col min="11010" max="11010" width="11.140625" style="15" customWidth="1"/>
-    <col min="11011" max="11011" width="144.85546875" style="15" customWidth="1"/>
-    <col min="11012" max="11265" width="9.140625" style="15"/>
-    <col min="11266" max="11266" width="11.140625" style="15" customWidth="1"/>
-    <col min="11267" max="11267" width="144.85546875" style="15" customWidth="1"/>
-    <col min="11268" max="11521" width="9.140625" style="15"/>
-    <col min="11522" max="11522" width="11.140625" style="15" customWidth="1"/>
-    <col min="11523" max="11523" width="144.85546875" style="15" customWidth="1"/>
-    <col min="11524" max="11777" width="9.140625" style="15"/>
-    <col min="11778" max="11778" width="11.140625" style="15" customWidth="1"/>
-    <col min="11779" max="11779" width="144.85546875" style="15" customWidth="1"/>
-    <col min="11780" max="12033" width="9.140625" style="15"/>
-    <col min="12034" max="12034" width="11.140625" style="15" customWidth="1"/>
-    <col min="12035" max="12035" width="144.85546875" style="15" customWidth="1"/>
-    <col min="12036" max="12289" width="9.140625" style="15"/>
-    <col min="12290" max="12290" width="11.140625" style="15" customWidth="1"/>
-    <col min="12291" max="12291" width="144.85546875" style="15" customWidth="1"/>
-    <col min="12292" max="12545" width="9.140625" style="15"/>
-    <col min="12546" max="12546" width="11.140625" style="15" customWidth="1"/>
-    <col min="12547" max="12547" width="144.85546875" style="15" customWidth="1"/>
-    <col min="12548" max="12801" width="9.140625" style="15"/>
-    <col min="12802" max="12802" width="11.140625" style="15" customWidth="1"/>
-    <col min="12803" max="12803" width="144.85546875" style="15" customWidth="1"/>
-    <col min="12804" max="13057" width="9.140625" style="15"/>
-    <col min="13058" max="13058" width="11.140625" style="15" customWidth="1"/>
-    <col min="13059" max="13059" width="144.85546875" style="15" customWidth="1"/>
-    <col min="13060" max="13313" width="9.140625" style="15"/>
-    <col min="13314" max="13314" width="11.140625" style="15" customWidth="1"/>
-    <col min="13315" max="13315" width="144.85546875" style="15" customWidth="1"/>
-    <col min="13316" max="13569" width="9.140625" style="15"/>
-    <col min="13570" max="13570" width="11.140625" style="15" customWidth="1"/>
-    <col min="13571" max="13571" width="144.85546875" style="15" customWidth="1"/>
-    <col min="13572" max="13825" width="9.140625" style="15"/>
-    <col min="13826" max="13826" width="11.140625" style="15" customWidth="1"/>
-    <col min="13827" max="13827" width="144.85546875" style="15" customWidth="1"/>
-    <col min="13828" max="14081" width="9.140625" style="15"/>
-    <col min="14082" max="14082" width="11.140625" style="15" customWidth="1"/>
-    <col min="14083" max="14083" width="144.85546875" style="15" customWidth="1"/>
-    <col min="14084" max="14337" width="9.140625" style="15"/>
-    <col min="14338" max="14338" width="11.140625" style="15" customWidth="1"/>
-    <col min="14339" max="14339" width="144.85546875" style="15" customWidth="1"/>
-    <col min="14340" max="14593" width="9.140625" style="15"/>
-    <col min="14594" max="14594" width="11.140625" style="15" customWidth="1"/>
-    <col min="14595" max="14595" width="144.85546875" style="15" customWidth="1"/>
-    <col min="14596" max="14849" width="9.140625" style="15"/>
-    <col min="14850" max="14850" width="11.140625" style="15" customWidth="1"/>
-    <col min="14851" max="14851" width="144.85546875" style="15" customWidth="1"/>
-    <col min="14852" max="15105" width="9.140625" style="15"/>
-    <col min="15106" max="15106" width="11.140625" style="15" customWidth="1"/>
-    <col min="15107" max="15107" width="144.85546875" style="15" customWidth="1"/>
-    <col min="15108" max="15361" width="9.140625" style="15"/>
-    <col min="15362" max="15362" width="11.140625" style="15" customWidth="1"/>
-    <col min="15363" max="15363" width="144.85546875" style="15" customWidth="1"/>
-    <col min="15364" max="15617" width="9.140625" style="15"/>
-    <col min="15618" max="15618" width="11.140625" style="15" customWidth="1"/>
-    <col min="15619" max="15619" width="144.85546875" style="15" customWidth="1"/>
-    <col min="15620" max="15873" width="9.140625" style="15"/>
-    <col min="15874" max="15874" width="11.140625" style="15" customWidth="1"/>
-    <col min="15875" max="15875" width="144.85546875" style="15" customWidth="1"/>
-    <col min="15876" max="16129" width="9.140625" style="15"/>
-    <col min="16130" max="16130" width="11.140625" style="15" customWidth="1"/>
-    <col min="16131" max="16131" width="144.85546875" style="15" customWidth="1"/>
-    <col min="16132" max="16384" width="9.140625" style="15"/>
+    <col min="1" max="1" width="9.19921875" style="14"/>
+    <col min="2" max="2" width="11.19921875" style="14" customWidth="1"/>
+    <col min="3" max="3" width="144.796875" style="14" customWidth="1"/>
+    <col min="4" max="257" width="9.19921875" style="15"/>
+    <col min="258" max="258" width="11.19921875" style="15" customWidth="1"/>
+    <col min="259" max="259" width="144.796875" style="15" customWidth="1"/>
+    <col min="260" max="513" width="9.19921875" style="15"/>
+    <col min="514" max="514" width="11.19921875" style="15" customWidth="1"/>
+    <col min="515" max="515" width="144.796875" style="15" customWidth="1"/>
+    <col min="516" max="769" width="9.19921875" style="15"/>
+    <col min="770" max="770" width="11.19921875" style="15" customWidth="1"/>
+    <col min="771" max="771" width="144.796875" style="15" customWidth="1"/>
+    <col min="772" max="1025" width="9.19921875" style="15"/>
+    <col min="1026" max="1026" width="11.19921875" style="15" customWidth="1"/>
+    <col min="1027" max="1027" width="144.796875" style="15" customWidth="1"/>
+    <col min="1028" max="1281" width="9.19921875" style="15"/>
+    <col min="1282" max="1282" width="11.19921875" style="15" customWidth="1"/>
+    <col min="1283" max="1283" width="144.796875" style="15" customWidth="1"/>
+    <col min="1284" max="1537" width="9.19921875" style="15"/>
+    <col min="1538" max="1538" width="11.19921875" style="15" customWidth="1"/>
+    <col min="1539" max="1539" width="144.796875" style="15" customWidth="1"/>
+    <col min="1540" max="1793" width="9.19921875" style="15"/>
+    <col min="1794" max="1794" width="11.19921875" style="15" customWidth="1"/>
+    <col min="1795" max="1795" width="144.796875" style="15" customWidth="1"/>
+    <col min="1796" max="2049" width="9.19921875" style="15"/>
+    <col min="2050" max="2050" width="11.19921875" style="15" customWidth="1"/>
+    <col min="2051" max="2051" width="144.796875" style="15" customWidth="1"/>
+    <col min="2052" max="2305" width="9.19921875" style="15"/>
+    <col min="2306" max="2306" width="11.19921875" style="15" customWidth="1"/>
+    <col min="2307" max="2307" width="144.796875" style="15" customWidth="1"/>
+    <col min="2308" max="2561" width="9.19921875" style="15"/>
+    <col min="2562" max="2562" width="11.19921875" style="15" customWidth="1"/>
+    <col min="2563" max="2563" width="144.796875" style="15" customWidth="1"/>
+    <col min="2564" max="2817" width="9.19921875" style="15"/>
+    <col min="2818" max="2818" width="11.19921875" style="15" customWidth="1"/>
+    <col min="2819" max="2819" width="144.796875" style="15" customWidth="1"/>
+    <col min="2820" max="3073" width="9.19921875" style="15"/>
+    <col min="3074" max="3074" width="11.19921875" style="15" customWidth="1"/>
+    <col min="3075" max="3075" width="144.796875" style="15" customWidth="1"/>
+    <col min="3076" max="3329" width="9.19921875" style="15"/>
+    <col min="3330" max="3330" width="11.19921875" style="15" customWidth="1"/>
+    <col min="3331" max="3331" width="144.796875" style="15" customWidth="1"/>
+    <col min="3332" max="3585" width="9.19921875" style="15"/>
+    <col min="3586" max="3586" width="11.19921875" style="15" customWidth="1"/>
+    <col min="3587" max="3587" width="144.796875" style="15" customWidth="1"/>
+    <col min="3588" max="3841" width="9.19921875" style="15"/>
+    <col min="3842" max="3842" width="11.19921875" style="15" customWidth="1"/>
+    <col min="3843" max="3843" width="144.796875" style="15" customWidth="1"/>
+    <col min="3844" max="4097" width="9.19921875" style="15"/>
+    <col min="4098" max="4098" width="11.19921875" style="15" customWidth="1"/>
+    <col min="4099" max="4099" width="144.796875" style="15" customWidth="1"/>
+    <col min="4100" max="4353" width="9.19921875" style="15"/>
+    <col min="4354" max="4354" width="11.19921875" style="15" customWidth="1"/>
+    <col min="4355" max="4355" width="144.796875" style="15" customWidth="1"/>
+    <col min="4356" max="4609" width="9.19921875" style="15"/>
+    <col min="4610" max="4610" width="11.19921875" style="15" customWidth="1"/>
+    <col min="4611" max="4611" width="144.796875" style="15" customWidth="1"/>
+    <col min="4612" max="4865" width="9.19921875" style="15"/>
+    <col min="4866" max="4866" width="11.19921875" style="15" customWidth="1"/>
+    <col min="4867" max="4867" width="144.796875" style="15" customWidth="1"/>
+    <col min="4868" max="5121" width="9.19921875" style="15"/>
+    <col min="5122" max="5122" width="11.19921875" style="15" customWidth="1"/>
+    <col min="5123" max="5123" width="144.796875" style="15" customWidth="1"/>
+    <col min="5124" max="5377" width="9.19921875" style="15"/>
+    <col min="5378" max="5378" width="11.19921875" style="15" customWidth="1"/>
+    <col min="5379" max="5379" width="144.796875" style="15" customWidth="1"/>
+    <col min="5380" max="5633" width="9.19921875" style="15"/>
+    <col min="5634" max="5634" width="11.19921875" style="15" customWidth="1"/>
+    <col min="5635" max="5635" width="144.796875" style="15" customWidth="1"/>
+    <col min="5636" max="5889" width="9.19921875" style="15"/>
+    <col min="5890" max="5890" width="11.19921875" style="15" customWidth="1"/>
+    <col min="5891" max="5891" width="144.796875" style="15" customWidth="1"/>
+    <col min="5892" max="6145" width="9.19921875" style="15"/>
+    <col min="6146" max="6146" width="11.19921875" style="15" customWidth="1"/>
+    <col min="6147" max="6147" width="144.796875" style="15" customWidth="1"/>
+    <col min="6148" max="6401" width="9.19921875" style="15"/>
+    <col min="6402" max="6402" width="11.19921875" style="15" customWidth="1"/>
+    <col min="6403" max="6403" width="144.796875" style="15" customWidth="1"/>
+    <col min="6404" max="6657" width="9.19921875" style="15"/>
+    <col min="6658" max="6658" width="11.19921875" style="15" customWidth="1"/>
+    <col min="6659" max="6659" width="144.796875" style="15" customWidth="1"/>
+    <col min="6660" max="6913" width="9.19921875" style="15"/>
+    <col min="6914" max="6914" width="11.19921875" style="15" customWidth="1"/>
+    <col min="6915" max="6915" width="144.796875" style="15" customWidth="1"/>
+    <col min="6916" max="7169" width="9.19921875" style="15"/>
+    <col min="7170" max="7170" width="11.19921875" style="15" customWidth="1"/>
+    <col min="7171" max="7171" width="144.796875" style="15" customWidth="1"/>
+    <col min="7172" max="7425" width="9.19921875" style="15"/>
+    <col min="7426" max="7426" width="11.19921875" style="15" customWidth="1"/>
+    <col min="7427" max="7427" width="144.796875" style="15" customWidth="1"/>
+    <col min="7428" max="7681" width="9.19921875" style="15"/>
+    <col min="7682" max="7682" width="11.19921875" style="15" customWidth="1"/>
+    <col min="7683" max="7683" width="144.796875" style="15" customWidth="1"/>
+    <col min="7684" max="7937" width="9.19921875" style="15"/>
+    <col min="7938" max="7938" width="11.19921875" style="15" customWidth="1"/>
+    <col min="7939" max="7939" width="144.796875" style="15" customWidth="1"/>
+    <col min="7940" max="8193" width="9.19921875" style="15"/>
+    <col min="8194" max="8194" width="11.19921875" style="15" customWidth="1"/>
+    <col min="8195" max="8195" width="144.796875" style="15" customWidth="1"/>
+    <col min="8196" max="8449" width="9.19921875" style="15"/>
+    <col min="8450" max="8450" width="11.19921875" style="15" customWidth="1"/>
+    <col min="8451" max="8451" width="144.796875" style="15" customWidth="1"/>
+    <col min="8452" max="8705" width="9.19921875" style="15"/>
+    <col min="8706" max="8706" width="11.19921875" style="15" customWidth="1"/>
+    <col min="8707" max="8707" width="144.796875" style="15" customWidth="1"/>
+    <col min="8708" max="8961" width="9.19921875" style="15"/>
+    <col min="8962" max="8962" width="11.19921875" style="15" customWidth="1"/>
+    <col min="8963" max="8963" width="144.796875" style="15" customWidth="1"/>
+    <col min="8964" max="9217" width="9.19921875" style="15"/>
+    <col min="9218" max="9218" width="11.19921875" style="15" customWidth="1"/>
+    <col min="9219" max="9219" width="144.796875" style="15" customWidth="1"/>
+    <col min="9220" max="9473" width="9.19921875" style="15"/>
+    <col min="9474" max="9474" width="11.19921875" style="15" customWidth="1"/>
+    <col min="9475" max="9475" width="144.796875" style="15" customWidth="1"/>
+    <col min="9476" max="9729" width="9.19921875" style="15"/>
+    <col min="9730" max="9730" width="11.19921875" style="15" customWidth="1"/>
+    <col min="9731" max="9731" width="144.796875" style="15" customWidth="1"/>
+    <col min="9732" max="9985" width="9.19921875" style="15"/>
+    <col min="9986" max="9986" width="11.19921875" style="15" customWidth="1"/>
+    <col min="9987" max="9987" width="144.796875" style="15" customWidth="1"/>
+    <col min="9988" max="10241" width="9.19921875" style="15"/>
+    <col min="10242" max="10242" width="11.19921875" style="15" customWidth="1"/>
+    <col min="10243" max="10243" width="144.796875" style="15" customWidth="1"/>
+    <col min="10244" max="10497" width="9.19921875" style="15"/>
+    <col min="10498" max="10498" width="11.19921875" style="15" customWidth="1"/>
+    <col min="10499" max="10499" width="144.796875" style="15" customWidth="1"/>
+    <col min="10500" max="10753" width="9.19921875" style="15"/>
+    <col min="10754" max="10754" width="11.19921875" style="15" customWidth="1"/>
+    <col min="10755" max="10755" width="144.796875" style="15" customWidth="1"/>
+    <col min="10756" max="11009" width="9.19921875" style="15"/>
+    <col min="11010" max="11010" width="11.19921875" style="15" customWidth="1"/>
+    <col min="11011" max="11011" width="144.796875" style="15" customWidth="1"/>
+    <col min="11012" max="11265" width="9.19921875" style="15"/>
+    <col min="11266" max="11266" width="11.19921875" style="15" customWidth="1"/>
+    <col min="11267" max="11267" width="144.796875" style="15" customWidth="1"/>
+    <col min="11268" max="11521" width="9.19921875" style="15"/>
+    <col min="11522" max="11522" width="11.19921875" style="15" customWidth="1"/>
+    <col min="11523" max="11523" width="144.796875" style="15" customWidth="1"/>
+    <col min="11524" max="11777" width="9.19921875" style="15"/>
+    <col min="11778" max="11778" width="11.19921875" style="15" customWidth="1"/>
+    <col min="11779" max="11779" width="144.796875" style="15" customWidth="1"/>
+    <col min="11780" max="12033" width="9.19921875" style="15"/>
+    <col min="12034" max="12034" width="11.19921875" style="15" customWidth="1"/>
+    <col min="12035" max="12035" width="144.796875" style="15" customWidth="1"/>
+    <col min="12036" max="12289" width="9.19921875" style="15"/>
+    <col min="12290" max="12290" width="11.19921875" style="15" customWidth="1"/>
+    <col min="12291" max="12291" width="144.796875" style="15" customWidth="1"/>
+    <col min="12292" max="12545" width="9.19921875" style="15"/>
+    <col min="12546" max="12546" width="11.19921875" style="15" customWidth="1"/>
+    <col min="12547" max="12547" width="144.796875" style="15" customWidth="1"/>
+    <col min="12548" max="12801" width="9.19921875" style="15"/>
+    <col min="12802" max="12802" width="11.19921875" style="15" customWidth="1"/>
+    <col min="12803" max="12803" width="144.796875" style="15" customWidth="1"/>
+    <col min="12804" max="13057" width="9.19921875" style="15"/>
+    <col min="13058" max="13058" width="11.19921875" style="15" customWidth="1"/>
+    <col min="13059" max="13059" width="144.796875" style="15" customWidth="1"/>
+    <col min="13060" max="13313" width="9.19921875" style="15"/>
+    <col min="13314" max="13314" width="11.19921875" style="15" customWidth="1"/>
+    <col min="13315" max="13315" width="144.796875" style="15" customWidth="1"/>
+    <col min="13316" max="13569" width="9.19921875" style="15"/>
+    <col min="13570" max="13570" width="11.19921875" style="15" customWidth="1"/>
+    <col min="13571" max="13571" width="144.796875" style="15" customWidth="1"/>
+    <col min="13572" max="13825" width="9.19921875" style="15"/>
+    <col min="13826" max="13826" width="11.19921875" style="15" customWidth="1"/>
+    <col min="13827" max="13827" width="144.796875" style="15" customWidth="1"/>
+    <col min="13828" max="14081" width="9.19921875" style="15"/>
+    <col min="14082" max="14082" width="11.19921875" style="15" customWidth="1"/>
+    <col min="14083" max="14083" width="144.796875" style="15" customWidth="1"/>
+    <col min="14084" max="14337" width="9.19921875" style="15"/>
+    <col min="14338" max="14338" width="11.19921875" style="15" customWidth="1"/>
+    <col min="14339" max="14339" width="144.796875" style="15" customWidth="1"/>
+    <col min="14340" max="14593" width="9.19921875" style="15"/>
+    <col min="14594" max="14594" width="11.19921875" style="15" customWidth="1"/>
+    <col min="14595" max="14595" width="144.796875" style="15" customWidth="1"/>
+    <col min="14596" max="14849" width="9.19921875" style="15"/>
+    <col min="14850" max="14850" width="11.19921875" style="15" customWidth="1"/>
+    <col min="14851" max="14851" width="144.796875" style="15" customWidth="1"/>
+    <col min="14852" max="15105" width="9.19921875" style="15"/>
+    <col min="15106" max="15106" width="11.19921875" style="15" customWidth="1"/>
+    <col min="15107" max="15107" width="144.796875" style="15" customWidth="1"/>
+    <col min="15108" max="15361" width="9.19921875" style="15"/>
+    <col min="15362" max="15362" width="11.19921875" style="15" customWidth="1"/>
+    <col min="15363" max="15363" width="144.796875" style="15" customWidth="1"/>
+    <col min="15364" max="15617" width="9.19921875" style="15"/>
+    <col min="15618" max="15618" width="11.19921875" style="15" customWidth="1"/>
+    <col min="15619" max="15619" width="144.796875" style="15" customWidth="1"/>
+    <col min="15620" max="15873" width="9.19921875" style="15"/>
+    <col min="15874" max="15874" width="11.19921875" style="15" customWidth="1"/>
+    <col min="15875" max="15875" width="144.796875" style="15" customWidth="1"/>
+    <col min="15876" max="16129" width="9.19921875" style="15"/>
+    <col min="16130" max="16130" width="11.19921875" style="15" customWidth="1"/>
+    <col min="16131" max="16131" width="144.796875" style="15" customWidth="1"/>
+    <col min="16132" max="16384" width="9.19921875" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" s="13" customFormat="1" ht="12">
       <c r="A1" s="12" t="s">
         <v>10</v>
       </c>
@@ -12396,7 +12431,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="12">
       <c r="A2" s="14">
         <v>1</v>
       </c>
@@ -12407,7 +12442,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="78.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="84">
       <c r="A3" s="14">
         <v>70291</v>
       </c>
@@ -12418,7 +12453,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="90" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="96">
       <c r="A4" s="14">
         <v>70286</v>
       </c>
@@ -12429,7 +12464,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="78.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="84">
       <c r="A5" s="14">
         <v>70296</v>
       </c>
@@ -12440,7 +12475,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="56.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="60">
       <c r="A6" s="14">
         <v>70176</v>
       </c>
@@ -12451,7 +12486,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="157.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="156">
       <c r="A7" s="14">
         <v>70126</v>
       </c>
@@ -12462,7 +12497,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="157.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="156">
       <c r="A8" s="14">
         <v>70131</v>
       </c>
@@ -12473,7 +12508,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="180" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="180">
       <c r="A9" s="14">
         <v>70136</v>
       </c>
@@ -12484,7 +12519,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="180" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" ht="180">
       <c r="A10" s="14">
         <v>70141</v>
       </c>
@@ -12495,7 +12530,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="180" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="180">
       <c r="A11" s="14">
         <v>70146</v>
       </c>
@@ -12506,7 +12541,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="180" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" ht="180">
       <c r="A12" s="14">
         <v>70151</v>
       </c>
@@ -12517,7 +12552,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="180" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" ht="180">
       <c r="A13" s="14">
         <v>70156</v>
       </c>
@@ -12528,7 +12563,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="180" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" ht="180">
       <c r="A14" s="14">
         <v>70161</v>
       </c>
@@ -12539,7 +12574,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="180" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" ht="180">
       <c r="A15" s="14">
         <v>70166</v>
       </c>
@@ -12550,7 +12585,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="180" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" ht="180">
       <c r="A16" s="14">
         <v>70171</v>
       </c>
@@ -12561,7 +12596,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="78.75" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" ht="84">
       <c r="A17" s="15">
         <v>70191</v>
       </c>
@@ -12572,7 +12607,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="180" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" ht="180">
       <c r="A18" s="15">
         <v>70181</v>
       </c>
@@ -12583,7 +12618,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="191.25" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" ht="192">
       <c r="A19" s="15">
         <v>70186</v>
       </c>
@@ -12594,7 +12629,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="56.25" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" ht="60">
       <c r="A20" s="15">
         <v>70401</v>
       </c>
@@ -12605,7 +12640,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="56.25" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" ht="60">
       <c r="A21" s="15">
         <v>70406</v>
       </c>
@@ -12616,7 +12651,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" ht="12">
       <c r="A22" s="15">
         <v>70301</v>
       </c>
@@ -12627,7 +12662,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="56.25" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" ht="60">
       <c r="A23" s="15">
         <v>70411</v>
       </c>
@@ -12638,7 +12673,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" ht="48">
       <c r="A24" s="15">
         <v>70306</v>
       </c>
@@ -12649,7 +12684,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="67.5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" ht="72">
       <c r="A25" s="15">
         <v>70416</v>
       </c>
@@ -12660,7 +12695,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="67.5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" ht="72">
       <c r="A26" s="15">
         <v>70421</v>
       </c>
@@ -12671,7 +12706,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="67.5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" ht="72">
       <c r="A27" s="15">
         <v>70426</v>
       </c>
@@ -12682,7 +12717,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="67.5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" ht="72">
       <c r="A28" s="15">
         <v>70431</v>
       </c>
@@ -12693,7 +12728,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="67.5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" ht="72">
       <c r="A29" s="15">
         <v>70436</v>
       </c>
@@ -12704,7 +12739,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="67.5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" ht="72">
       <c r="A30" s="15">
         <v>70441</v>
       </c>
@@ -12715,7 +12750,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="67.5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" ht="72">
       <c r="A31" s="15">
         <v>70446</v>
       </c>
@@ -12726,7 +12761,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="213.75" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" ht="216">
       <c r="A32" s="15">
         <v>70196</v>
       </c>
@@ -12737,7 +12772,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="191.25" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" ht="192">
       <c r="A33" s="15">
         <v>70201</v>
       </c>
@@ -12748,7 +12783,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="202.5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" ht="204">
       <c r="A34" s="15">
         <v>71099</v>
       </c>
@@ -12759,7 +12794,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="202.5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" ht="204">
       <c r="A35" s="15">
         <v>71100</v>
       </c>
@@ -12770,7 +12805,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="157.5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" ht="156">
       <c r="A36" s="15">
         <v>70311</v>
       </c>
@@ -12781,7 +12816,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="157.5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" ht="156">
       <c r="A37" s="15">
         <v>70316</v>
       </c>
@@ -12792,7 +12827,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="157.5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" ht="156">
       <c r="A38" s="15">
         <v>70451</v>
       </c>
@@ -12803,7 +12838,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="157.5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" ht="156">
       <c r="A39" s="15">
         <v>70321</v>
       </c>
@@ -12814,7 +12849,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="202.5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" ht="204">
       <c r="A40" s="15">
         <v>70206</v>
       </c>
@@ -12825,7 +12860,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="202.5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" ht="204">
       <c r="A41" s="15">
         <v>70211</v>
       </c>
@@ -12836,7 +12871,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="180" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" ht="180">
       <c r="A42" s="15">
         <v>70456</v>
       </c>
@@ -12847,7 +12882,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="202.5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" ht="204">
       <c r="A43" s="15">
         <v>70216</v>
       </c>
@@ -12858,7 +12893,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="168.75" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" ht="168">
       <c r="A44" s="15">
         <v>70326</v>
       </c>
@@ -12869,7 +12904,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="168.75" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" ht="168">
       <c r="A45" s="15">
         <v>70331</v>
       </c>
@@ -12880,7 +12915,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="168.75" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" ht="168">
       <c r="A46" s="15">
         <v>70461</v>
       </c>
@@ -12891,7 +12926,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="168.75" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" ht="168">
       <c r="A47" s="15">
         <v>70336</v>
       </c>
@@ -12902,7 +12937,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="202.5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" ht="204">
       <c r="A48" s="15">
         <v>70341</v>
       </c>
@@ -12913,7 +12948,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="202.5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" ht="204">
       <c r="A49" s="15">
         <v>70346</v>
       </c>
@@ -12924,7 +12959,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="213.75" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" ht="216">
       <c r="A50" s="15">
         <v>70466</v>
       </c>
@@ -12935,7 +12970,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="202.5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" ht="204">
       <c r="A51" s="15">
         <v>70351</v>
       </c>
@@ -12946,7 +12981,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="180" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" ht="180">
       <c r="A52" s="15">
         <v>70221</v>
       </c>
@@ -12957,7 +12992,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="180" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" ht="180">
       <c r="A53" s="15">
         <v>70226</v>
       </c>
@@ -12968,7 +13003,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="168.75" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" ht="168">
       <c r="A54" s="15">
         <v>70471</v>
       </c>
@@ -12979,7 +13014,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="180" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" ht="180">
       <c r="A55" s="15">
         <v>70231</v>
       </c>
@@ -12990,7 +13025,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="202.5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" ht="204">
       <c r="A56" s="15">
         <v>70236</v>
       </c>
@@ -13001,7 +13036,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="202.5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" ht="204">
       <c r="A57" s="15">
         <v>70241</v>
       </c>
@@ -13012,7 +13047,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="180" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" ht="180">
       <c r="A58" s="15">
         <v>70476</v>
       </c>
@@ -13023,7 +13058,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="202.5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" ht="204">
       <c r="A59" s="15">
         <v>70246</v>
       </c>
@@ -13034,7 +13069,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="191.25" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" ht="192">
       <c r="A60" s="15">
         <v>70251</v>
       </c>
@@ -13045,7 +13080,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="191.25" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" ht="192">
       <c r="A61" s="15">
         <v>70256</v>
       </c>
@@ -13056,7 +13091,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="168.75" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" ht="168">
       <c r="A62" s="15">
         <v>70481</v>
       </c>
@@ -13067,7 +13102,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="191.25" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" ht="192">
       <c r="A63" s="15">
         <v>70261</v>
       </c>
@@ -13078,7 +13113,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="168.75" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" ht="168">
       <c r="A64" s="15">
         <v>70356</v>
       </c>
@@ -13089,7 +13124,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="168.75" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" ht="168">
       <c r="A65" s="15">
         <v>70361</v>
       </c>
@@ -13100,7 +13135,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="168.75" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" ht="168">
       <c r="A66" s="15">
         <v>70486</v>
       </c>
@@ -13111,7 +13146,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="168.75" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" ht="168">
       <c r="A67" s="15">
         <v>70366</v>
       </c>
@@ -13122,7 +13157,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="157.5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" ht="156">
       <c r="A68" s="15">
         <v>70371</v>
       </c>
@@ -13133,7 +13168,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="157.5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" ht="156">
       <c r="A69" s="15">
         <v>70376</v>
       </c>
@@ -13144,7 +13179,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="157.5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" ht="156">
       <c r="A70" s="15">
         <v>70491</v>
       </c>
@@ -13155,7 +13190,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="157.5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" ht="156">
       <c r="A71" s="15">
         <v>70381</v>
       </c>
@@ -13166,7 +13201,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="135" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" ht="132">
       <c r="A72" s="15">
         <v>70496</v>
       </c>
@@ -13177,7 +13212,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="180" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" ht="180">
       <c r="A73" s="15">
         <v>70501</v>
       </c>
@@ -13188,7 +13223,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="180" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" ht="180">
       <c r="A74" s="15">
         <v>70506</v>
       </c>
@@ -13199,7 +13234,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="180" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" ht="180">
       <c r="A75" s="15">
         <v>70511</v>
       </c>
@@ -13210,7 +13245,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="168.75" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" ht="168">
       <c r="A76" s="15">
         <v>70516</v>
       </c>
@@ -13221,7 +13256,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="146.25" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" ht="144">
       <c r="A77" s="15">
         <v>70521</v>
       </c>
@@ -13232,7 +13267,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="146.25" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" ht="144">
       <c r="A78" s="15">
         <v>70526</v>
       </c>
@@ -13243,7 +13278,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="135" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" ht="132">
       <c r="A79" s="15">
         <v>70531</v>
       </c>
@@ -13254,7 +13289,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="180" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" ht="180">
       <c r="A80" s="15">
         <v>70536</v>
       </c>
@@ -13265,7 +13300,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="180" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3" ht="180">
       <c r="A81" s="15">
         <v>70541</v>
       </c>
@@ -13276,7 +13311,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="180" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3" ht="180">
       <c r="A82" s="15">
         <v>70546</v>
       </c>
@@ -13287,7 +13322,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="168.75" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3" ht="168">
       <c r="A83" s="15">
         <v>70551</v>
       </c>
@@ -13298,7 +13333,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="146.25" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3" ht="144">
       <c r="A84" s="15">
         <v>70556</v>
       </c>
@@ -13309,7 +13344,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="146.25" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3" ht="144">
       <c r="A85" s="15">
         <v>70561</v>
       </c>
@@ -13320,7 +13355,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="135" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3" ht="132">
       <c r="A86" s="15">
         <v>70566</v>
       </c>
@@ -13331,7 +13366,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="180" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3" ht="180">
       <c r="A87" s="15">
         <v>70571</v>
       </c>
@@ -13342,7 +13377,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="180" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3" ht="180">
       <c r="A88" s="15">
         <v>70576</v>
       </c>
@@ -13353,7 +13388,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="180" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3" ht="180">
       <c r="A89" s="15">
         <v>70581</v>
       </c>
@@ -13364,7 +13399,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="213.75" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3" ht="216">
       <c r="A90" s="15">
         <v>70586</v>
       </c>
@@ -13375,7 +13410,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="146.25" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3" ht="144">
       <c r="A91" s="15">
         <v>70591</v>
       </c>
@@ -13386,7 +13421,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="146.25" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3" ht="144">
       <c r="A92" s="15">
         <v>70596</v>
       </c>
@@ -13397,7 +13432,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="180" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3" ht="180">
       <c r="A93" s="15">
         <v>70601</v>
       </c>
@@ -13408,7 +13443,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="225" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3" ht="228">
       <c r="A94" s="15">
         <v>70606</v>
       </c>
@@ -13419,7 +13454,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="225" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3" ht="228">
       <c r="A95" s="15">
         <v>70611</v>
       </c>
@@ -13430,7 +13465,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="225" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3" ht="228">
       <c r="A96" s="15">
         <v>70616</v>
       </c>
@@ -13441,7 +13476,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="236.25" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:3" ht="240">
       <c r="A97" s="15">
         <v>70621</v>
       </c>
@@ -13452,7 +13487,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="213.75" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:3" ht="216">
       <c r="A98" s="15">
         <v>70626</v>
       </c>
@@ -13463,7 +13498,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="213.75" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:3" ht="216">
       <c r="A99" s="15">
         <v>70631</v>
       </c>
@@ -13474,7 +13509,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="213.75" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:3" ht="216">
       <c r="A100" s="15">
         <v>70636</v>
       </c>
@@ -13485,7 +13520,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="213.75" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:3" ht="216">
       <c r="A101" s="15">
         <v>70641</v>
       </c>
@@ -13496,7 +13531,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="213.75" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:3" ht="216">
       <c r="A102" s="15">
         <v>70646</v>
       </c>
@@ -13507,7 +13542,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="213.75" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:3" ht="216">
       <c r="A103" s="15">
         <v>70651</v>
       </c>
@@ -13518,7 +13553,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="213.75" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:3" ht="216">
       <c r="A104" s="15">
         <v>70656</v>
       </c>
@@ -13529,7 +13564,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="213.75" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:3" ht="216">
       <c r="A105" s="15">
         <v>70661</v>
       </c>
@@ -13540,7 +13575,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="213.75" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:3" ht="216">
       <c r="A106" s="15">
         <v>70666</v>
       </c>
@@ -13551,7 +13586,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="213.75" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:3" ht="216">
       <c r="A107" s="15">
         <v>70671</v>
       </c>
@@ -13562,7 +13597,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="213.75" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:3" ht="216">
       <c r="A108" s="15">
         <v>70676</v>
       </c>
@@ -13573,7 +13608,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="213.75" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:3" ht="216">
       <c r="A109" s="15">
         <v>70681</v>
       </c>
@@ -13584,7 +13619,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="213.75" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:3" ht="216">
       <c r="A110" s="15">
         <v>70686</v>
       </c>
@@ -13595,7 +13630,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="213.75" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:3" ht="216">
       <c r="A111" s="15">
         <v>70691</v>
       </c>
@@ -13606,7 +13641,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="112" spans="1:3" ht="213.75" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:3" ht="216">
       <c r="A112" s="15">
         <v>70696</v>
       </c>
@@ -13617,7 +13652,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="113" spans="1:3" ht="213.75" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:3" ht="216">
       <c r="A113" s="15">
         <v>70701</v>
       </c>
@@ -13628,7 +13663,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="114" spans="1:3" ht="213.75" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:3" ht="216">
       <c r="A114" s="15">
         <v>70706</v>
       </c>
@@ -13639,7 +13674,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="115" spans="1:3" ht="180" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:3" ht="180">
       <c r="A115" s="15">
         <v>71101</v>
       </c>
@@ -13650,7 +13685,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="116" spans="1:3" ht="225" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:3" ht="228">
       <c r="A116" s="15">
         <v>71106</v>
       </c>
@@ -13661,7 +13696,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="117" spans="1:3" ht="225" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:3" ht="228">
       <c r="A117" s="15">
         <v>71111</v>
       </c>
@@ -13672,7 +13707,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="118" spans="1:3" ht="225" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:3" ht="228">
       <c r="A118" s="15">
         <v>71116</v>
       </c>
@@ -13683,7 +13718,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="119" spans="1:3" ht="225" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:3" ht="228">
       <c r="A119" s="15">
         <v>71121</v>
       </c>
@@ -13694,7 +13729,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="120" spans="1:3" ht="180" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:3" ht="180">
       <c r="A120" s="15">
         <v>71126</v>
       </c>
@@ -13705,7 +13740,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="121" spans="1:3" ht="180" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:3" ht="180">
       <c r="A121" s="15">
         <v>71131</v>
       </c>
@@ -13716,7 +13751,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="122" spans="1:3" ht="213.75" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:3" ht="216">
       <c r="A122" s="15">
         <v>71136</v>
       </c>
@@ -13727,7 +13762,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="123" spans="1:3" ht="213.75" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:3" ht="216">
       <c r="A123" s="15">
         <v>71141</v>
       </c>
@@ -13738,7 +13773,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="124" spans="1:3" ht="213.75" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:3" ht="216">
       <c r="A124" s="15">
         <v>71146</v>
       </c>
@@ -13749,7 +13784,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="125" spans="1:3" ht="213.75" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:3" ht="216">
       <c r="A125" s="15">
         <v>71151</v>
       </c>
@@ -13760,7 +13795,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="126" spans="1:3" ht="213.75" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:3" ht="216">
       <c r="A126" s="15">
         <v>71156</v>
       </c>
@@ -13771,7 +13806,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="127" spans="1:3" ht="213.75" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:3" ht="216">
       <c r="A127" s="15">
         <v>71161</v>
       </c>
@@ -13782,7 +13817,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="128" spans="1:3" ht="213.75" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:3" ht="216">
       <c r="A128" s="15">
         <v>71166</v>
       </c>
@@ -13793,7 +13828,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="129" spans="1:3" ht="213.75" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:3" ht="216">
       <c r="A129" s="15">
         <v>71171</v>
       </c>
@@ -13804,7 +13839,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="130" spans="1:3" ht="213.75" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:3" ht="216">
       <c r="A130" s="15">
         <v>71176</v>
       </c>
@@ -13815,7 +13850,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="131" spans="1:3" ht="213.75" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:3" ht="216">
       <c r="A131" s="15">
         <v>71181</v>
       </c>
@@ -13826,7 +13861,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="132" spans="1:3" ht="213.75" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:3" ht="216">
       <c r="A132" s="15">
         <v>71186</v>
       </c>
@@ -13837,7 +13872,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="133" spans="1:3" ht="213.75" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:3" ht="216">
       <c r="A133" s="15">
         <v>71191</v>
       </c>
@@ -13848,7 +13883,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="134" spans="1:3" ht="213.75" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:3" ht="216">
       <c r="A134" s="15">
         <v>71196</v>
       </c>
@@ -13859,7 +13894,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="135" spans="1:3" ht="213.75" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:3" ht="216">
       <c r="A135" s="15">
         <v>71201</v>
       </c>
@@ -13870,7 +13905,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="136" spans="1:3" ht="213.75" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:3" ht="216">
       <c r="A136" s="15">
         <v>71206</v>
       </c>
@@ -13881,7 +13916,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="137" spans="1:3" ht="180" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:3" ht="180">
       <c r="A137" s="15">
         <v>71401</v>
       </c>
@@ -13892,7 +13927,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="138" spans="1:3" ht="225" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:3" ht="228">
       <c r="A138" s="15">
         <v>71406</v>
       </c>
@@ -13903,7 +13938,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="139" spans="1:3" ht="225" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:3" ht="228">
       <c r="A139" s="15">
         <v>71411</v>
       </c>
@@ -13914,7 +13949,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="140" spans="1:3" ht="225" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:3" ht="228">
       <c r="A140" s="15">
         <v>71416</v>
       </c>
@@ -13925,7 +13960,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="141" spans="1:3" ht="225" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:3" ht="228">
       <c r="A141" s="15">
         <v>71421</v>
       </c>
@@ -13936,7 +13971,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="142" spans="1:3" ht="213.75" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:3" ht="216">
       <c r="A142" s="15">
         <v>71426</v>
       </c>
@@ -13947,7 +13982,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="143" spans="1:3" ht="213.75" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:3" ht="216">
       <c r="A143" s="15">
         <v>71431</v>
       </c>
@@ -13958,7 +13993,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="144" spans="1:3" ht="213.75" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:3" ht="216">
       <c r="A144" s="15">
         <v>71436</v>
       </c>
@@ -13969,7 +14004,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="145" spans="1:3" ht="213.75" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:3" ht="216">
       <c r="A145" s="15">
         <v>71441</v>
       </c>
@@ -13980,7 +14015,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="146" spans="1:3" ht="213.75" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:3" ht="216">
       <c r="A146" s="15">
         <v>71446</v>
       </c>
@@ -13991,7 +14026,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="147" spans="1:3" ht="213.75" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:3" ht="216">
       <c r="A147" s="15">
         <v>71451</v>
       </c>
@@ -14002,7 +14037,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="148" spans="1:3" ht="213.75" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:3" ht="216">
       <c r="A148" s="15">
         <v>71456</v>
       </c>
@@ -14013,7 +14048,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="149" spans="1:3" ht="213.75" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:3" ht="216">
       <c r="A149" s="15">
         <v>71461</v>
       </c>
@@ -14024,7 +14059,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="150" spans="1:3" ht="213.75" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:3" ht="216">
       <c r="A150" s="15">
         <v>71466</v>
       </c>
@@ -14035,7 +14070,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="151" spans="1:3" ht="213.75" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:3" ht="216">
       <c r="A151" s="15">
         <v>71471</v>
       </c>
@@ -14046,7 +14081,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="152" spans="1:3" ht="213.75" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:3" ht="216">
       <c r="A152" s="15">
         <v>71476</v>
       </c>
@@ -14057,7 +14092,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="153" spans="1:3" ht="213.75" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:3" ht="216">
       <c r="A153" s="15">
         <v>71481</v>
       </c>
@@ -14068,7 +14103,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="154" spans="1:3" ht="213.75" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:3" ht="216">
       <c r="A154" s="15">
         <v>71486</v>
       </c>
@@ -14079,7 +14114,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="155" spans="1:3" ht="213.75" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:3" ht="216">
       <c r="A155" s="15">
         <v>71491</v>
       </c>
@@ -14090,7 +14125,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="156" spans="1:3" ht="213.75" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:3" ht="216">
       <c r="A156" s="15">
         <v>71496</v>
       </c>
@@ -14101,7 +14136,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="157" spans="1:3" ht="213.75" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:3" ht="216">
       <c r="A157" s="15">
         <v>71501</v>
       </c>
@@ -14112,7 +14147,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="158" spans="1:3" ht="213.75" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:3" ht="216">
       <c r="A158" s="15">
         <v>71506</v>
       </c>
@@ -14123,7 +14158,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="159" spans="1:3" ht="258.75" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:3" ht="262">
       <c r="A159" s="15">
         <v>71802</v>
       </c>
@@ -14134,7 +14169,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="160" spans="1:3" ht="292.5" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:3" ht="295">
       <c r="A160" s="15">
         <v>71807</v>
       </c>
@@ -14145,7 +14180,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="161" spans="1:3" ht="292.5" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:3" ht="295">
       <c r="A161" s="15">
         <v>71812</v>
       </c>
@@ -14156,7 +14191,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="162" spans="1:3" ht="292.5" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:3" ht="295">
       <c r="A162" s="15">
         <v>71817</v>
       </c>
@@ -14167,7 +14202,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="163" spans="1:3" ht="292.5" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:3" ht="295">
       <c r="A163" s="15">
         <v>71822</v>
       </c>
@@ -14178,7 +14213,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="164" spans="1:3" ht="292.5" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:3" ht="295">
       <c r="A164" s="15">
         <v>71827</v>
       </c>
@@ -14189,7 +14224,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="165" spans="1:3" ht="292.5" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:3" ht="295">
       <c r="A165" s="15">
         <v>71832</v>
       </c>
@@ -14200,7 +14235,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="166" spans="1:3" ht="292.5" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:3" ht="295">
       <c r="A166" s="15">
         <v>71837</v>
       </c>
@@ -14211,7 +14246,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="167" spans="1:3" ht="292.5" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:3" ht="295">
       <c r="A167" s="15">
         <v>71842</v>
       </c>
@@ -14222,7 +14257,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="168" spans="1:3" ht="292.5" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:3" ht="295">
       <c r="A168" s="15">
         <v>71847</v>
       </c>
@@ -14233,7 +14268,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="169" spans="1:3" ht="292.5" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:3" ht="295">
       <c r="A169" s="15">
         <v>71852</v>
       </c>
@@ -14244,7 +14279,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="170" spans="1:3" ht="292.5" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:3" ht="295">
       <c r="A170" s="15">
         <v>71857</v>
       </c>
@@ -14255,7 +14290,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="171" spans="1:3" ht="292.5" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:3" ht="295">
       <c r="A171" s="15">
         <v>71862</v>
       </c>
@@ -14266,7 +14301,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="172" spans="1:3" ht="292.5" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:3" ht="295">
       <c r="A172" s="15">
         <v>71867</v>
       </c>
@@ -14277,7 +14312,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="173" spans="1:3" ht="292.5" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:3" ht="295">
       <c r="A173" s="15">
         <v>71872</v>
       </c>
@@ -14288,7 +14323,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="174" spans="1:3" ht="292.5" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:3" ht="295">
       <c r="A174" s="15">
         <v>71877</v>
       </c>
@@ -14299,7 +14334,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="175" spans="1:3" ht="292.5" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:3" ht="295">
       <c r="A175" s="15">
         <v>71882</v>
       </c>
@@ -14310,7 +14345,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="176" spans="1:3" ht="292.5" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:3" ht="295">
       <c r="A176" s="15">
         <v>71887</v>
       </c>
@@ -14321,7 +14356,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="177" spans="1:3" ht="292.5" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:3" ht="295">
       <c r="A177" s="15">
         <v>70711</v>
       </c>
@@ -14332,7 +14367,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="178" spans="1:3" ht="292.5" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:3" ht="295">
       <c r="A178" s="15">
         <v>70716</v>
       </c>
@@ -14343,7 +14378,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="179" spans="1:3" ht="292.5" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:3" ht="295">
       <c r="A179" s="15">
         <v>70721</v>
       </c>
@@ -14354,7 +14389,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="180" spans="1:3" ht="337.5" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:3" ht="339">
       <c r="A180" s="15">
         <v>70726</v>
       </c>
@@ -14365,7 +14400,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="181" spans="1:3" ht="337.5" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:3" ht="339">
       <c r="A181" s="15">
         <v>70731</v>
       </c>
@@ -14376,7 +14411,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="182" spans="1:3" ht="348.75" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:3" ht="350">
       <c r="A182" s="15">
         <v>70736</v>
       </c>
@@ -14387,7 +14422,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="183" spans="1:3" ht="337.5" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:3" ht="339">
       <c r="A183" s="15">
         <v>70741</v>
       </c>
@@ -14398,7 +14433,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="184" spans="1:3" ht="337.5" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:3" ht="339">
       <c r="A184" s="15">
         <v>70746</v>
       </c>
@@ -14409,7 +14444,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="185" spans="1:3" ht="337.5" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:3" ht="339">
       <c r="A185" s="15">
         <v>71216</v>
       </c>
@@ -14420,7 +14455,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="186" spans="1:3" ht="337.5" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:3" ht="339">
       <c r="A186" s="15">
         <v>71221</v>
       </c>
@@ -14431,7 +14466,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="187" spans="1:3" ht="348.75" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:3" ht="350">
       <c r="A187" s="15">
         <v>71226</v>
       </c>
@@ -14442,7 +14477,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="188" spans="1:3" ht="337.5" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:3" ht="339">
       <c r="A188" s="15">
         <v>71231</v>
       </c>
@@ -14453,7 +14488,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="189" spans="1:3" ht="337.5" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:3" ht="339">
       <c r="A189" s="15">
         <v>71236</v>
       </c>
@@ -14464,7 +14499,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="190" spans="1:3" ht="337.5" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:3" ht="339">
       <c r="A190" s="15">
         <v>71516</v>
       </c>
@@ -14475,7 +14510,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="191" spans="1:3" ht="337.5" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:3" ht="339">
       <c r="A191" s="15">
         <v>71521</v>
       </c>
@@ -14486,7 +14521,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="192" spans="1:3" ht="348.75" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:3" ht="350">
       <c r="A192" s="15">
         <v>71526</v>
       </c>
@@ -14497,7 +14532,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="193" spans="1:3" ht="337.5" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:3" ht="339">
       <c r="A193" s="15">
         <v>71531</v>
       </c>
@@ -14508,7 +14543,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="194" spans="1:3" ht="337.5" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:3" ht="339">
       <c r="A194" s="15">
         <v>71536</v>
       </c>
@@ -14519,7 +14554,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="195" spans="1:3" ht="146.25" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:3" ht="132">
       <c r="A195" s="15">
         <v>70751</v>
       </c>
@@ -14530,7 +14565,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="196" spans="1:3" ht="191.25" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:3" ht="180">
       <c r="A196" s="15">
         <v>70756</v>
       </c>
@@ -14541,7 +14576,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="197" spans="1:3" ht="191.25" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:3" ht="180">
       <c r="A197" s="15">
         <v>70761</v>
       </c>
@@ -14552,7 +14587,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="198" spans="1:3" ht="191.25" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:3" ht="180">
       <c r="A198" s="15">
         <v>70766</v>
       </c>
@@ -14563,7 +14598,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="199" spans="1:3" ht="191.25" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:3" ht="180">
       <c r="A199" s="15">
         <v>70771</v>
       </c>
@@ -14574,7 +14609,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="200" spans="1:3" ht="146.25" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:3" ht="132">
       <c r="A200" s="15">
         <v>70776</v>
       </c>
@@ -14585,7 +14620,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="201" spans="1:3" ht="146.25" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:3" ht="132">
       <c r="A201" s="15">
         <v>70781</v>
       </c>
@@ -14596,7 +14631,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="202" spans="1:3" ht="146.25" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:3" ht="132">
       <c r="A202" s="15">
         <v>70786</v>
       </c>
@@ -14607,7 +14642,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="203" spans="1:3" ht="191.25" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:3" ht="180">
       <c r="A203" s="15">
         <v>70791</v>
       </c>
@@ -14618,7 +14653,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="204" spans="1:3" ht="191.25" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:3" ht="180">
       <c r="A204" s="15">
         <v>70796</v>
       </c>
@@ -14629,7 +14664,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="205" spans="1:3" ht="191.25" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:3" ht="180">
       <c r="A205" s="15">
         <v>70801</v>
       </c>
@@ -14640,7 +14675,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="206" spans="1:3" ht="191.25" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:3" ht="180">
       <c r="A206" s="15">
         <v>70806</v>
       </c>
@@ -14651,7 +14686,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="207" spans="1:3" ht="146.25" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:3" ht="132">
       <c r="A207" s="15">
         <v>70811</v>
       </c>
@@ -14662,7 +14697,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="208" spans="1:3" ht="146.25" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:3" ht="132">
       <c r="A208" s="15">
         <v>70816</v>
       </c>
@@ -14673,7 +14708,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="209" spans="1:3" ht="146.25" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:3" ht="132">
       <c r="A209" s="15">
         <v>70821</v>
       </c>
@@ -14684,7 +14719,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="210" spans="1:3" ht="191.25" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:3" ht="180">
       <c r="A210" s="15">
         <v>70826</v>
       </c>
@@ -14695,7 +14730,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="211" spans="1:3" ht="191.25" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:3" ht="180">
       <c r="A211" s="15">
         <v>70831</v>
       </c>
@@ -14706,7 +14741,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="212" spans="1:3" ht="191.25" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:3" ht="180">
       <c r="A212" s="15">
         <v>70836</v>
       </c>
@@ -14717,7 +14752,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="213" spans="1:3" ht="191.25" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:3" ht="180">
       <c r="A213" s="15">
         <v>70841</v>
       </c>
@@ -14728,7 +14763,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="214" spans="1:3" ht="146.25" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:3" ht="132">
       <c r="A214" s="15">
         <v>70846</v>
       </c>
@@ -14739,7 +14774,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="215" spans="1:3" ht="146.25" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:3" ht="132">
       <c r="A215" s="15">
         <v>70851</v>
       </c>
@@ -14750,7 +14785,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="216" spans="1:3" ht="180" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:3" ht="168">
       <c r="A216" s="15">
         <v>70856</v>
       </c>
@@ -14761,7 +14796,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="217" spans="1:3" ht="236.25" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:3" ht="228">
       <c r="A217" s="15">
         <v>70861</v>
       </c>
@@ -14772,7 +14807,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="218" spans="1:3" ht="236.25" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:3" ht="228">
       <c r="A218" s="15">
         <v>70866</v>
       </c>
@@ -14783,7 +14818,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="219" spans="1:3" ht="236.25" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:3" ht="228">
       <c r="A219" s="15">
         <v>70871</v>
       </c>
@@ -14794,7 +14829,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="220" spans="1:3" ht="236.25" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:3" ht="228">
       <c r="A220" s="15">
         <v>70876</v>
       </c>
@@ -14805,7 +14840,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="221" spans="1:3" ht="191.25" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:3" ht="180">
       <c r="A221" s="15">
         <v>70881</v>
       </c>
@@ -14816,7 +14851,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="222" spans="1:3" ht="191.25" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:3" ht="180">
       <c r="A222" s="15">
         <v>70886</v>
       </c>
@@ -14827,7 +14862,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="223" spans="1:3" ht="236.25" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:3" ht="240">
       <c r="A223" s="15">
         <v>70891</v>
       </c>
@@ -14838,7 +14873,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="224" spans="1:3" ht="225" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:3" ht="216">
       <c r="A224" s="15">
         <v>70896</v>
       </c>
@@ -14849,7 +14884,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="225" spans="1:3" ht="225" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:3" ht="216">
       <c r="A225" s="15">
         <v>70901</v>
       </c>
@@ -14860,7 +14895,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="226" spans="1:3" ht="225" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:3" ht="216">
       <c r="A226" s="15">
         <v>70906</v>
       </c>
@@ -14871,7 +14906,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="227" spans="1:3" ht="225" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:3" ht="216">
       <c r="A227" s="15">
         <v>70911</v>
       </c>
@@ -14882,7 +14917,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="228" spans="1:3" ht="225" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:3" ht="216">
       <c r="A228" s="15">
         <v>70916</v>
       </c>
@@ -14893,7 +14928,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="229" spans="1:3" ht="225" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:3" ht="216">
       <c r="A229" s="15">
         <v>70921</v>
       </c>
@@ -14904,7 +14939,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="230" spans="1:3" ht="225" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:3" ht="216">
       <c r="A230" s="15">
         <v>70926</v>
       </c>
@@ -14915,7 +14950,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="231" spans="1:3" ht="225" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:3" ht="216">
       <c r="A231" s="15">
         <v>70931</v>
       </c>
@@ -14926,7 +14961,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="232" spans="1:3" ht="225" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:3" ht="216">
       <c r="A232" s="15">
         <v>70936</v>
       </c>
@@ -14937,7 +14972,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="233" spans="1:3" ht="225" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:3" ht="216">
       <c r="A233" s="15">
         <v>70941</v>
       </c>
@@ -14948,7 +14983,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="234" spans="1:3" ht="225" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:3" ht="216">
       <c r="A234" s="15">
         <v>70946</v>
       </c>
@@ -14959,7 +14994,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="235" spans="1:3" ht="225" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:3" ht="216">
       <c r="A235" s="15">
         <v>70951</v>
       </c>
@@ -14970,7 +15005,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="236" spans="1:3" ht="225" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:3" ht="216">
       <c r="A236" s="15">
         <v>70956</v>
       </c>
@@ -14981,7 +15016,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="237" spans="1:3" ht="225" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:3" ht="216">
       <c r="A237" s="15">
         <v>70961</v>
       </c>
@@ -14992,7 +15027,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="238" spans="1:3" ht="213.75" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:3" ht="204">
       <c r="A238" s="15">
         <v>71241</v>
       </c>
@@ -15003,7 +15038,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="239" spans="1:3" ht="236.25" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:3" ht="228">
       <c r="A239" s="15">
         <v>71246</v>
       </c>
@@ -15014,7 +15049,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="240" spans="1:3" ht="236.25" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:3" ht="228">
       <c r="A240" s="15">
         <v>71251</v>
       </c>
@@ -15025,7 +15060,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="241" spans="1:3" ht="236.25" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:3" ht="228">
       <c r="A241" s="15">
         <v>71256</v>
       </c>
@@ -15036,7 +15071,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="242" spans="1:3" ht="236.25" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:3" ht="228">
       <c r="A242" s="15">
         <v>71261</v>
       </c>
@@ -15047,7 +15082,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="243" spans="1:3" ht="191.25" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:3" ht="180">
       <c r="A243" s="15">
         <v>71266</v>
       </c>
@@ -15058,7 +15093,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="244" spans="1:3" ht="191.25" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:3" ht="180">
       <c r="A244" s="15">
         <v>71271</v>
       </c>
@@ -15069,7 +15104,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="245" spans="1:3" ht="225" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:3" ht="216">
       <c r="A245" s="15">
         <v>71276</v>
       </c>
@@ -15080,7 +15115,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="246" spans="1:3" ht="225" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:3" ht="216">
       <c r="A246" s="15">
         <v>71281</v>
       </c>
@@ -15091,7 +15126,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="247" spans="1:3" ht="225" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:3" ht="216">
       <c r="A247" s="15">
         <v>71286</v>
       </c>
@@ -15102,7 +15137,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="248" spans="1:3" ht="225" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:3" ht="216">
       <c r="A248" s="15">
         <v>71291</v>
       </c>
@@ -15113,7 +15148,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="249" spans="1:3" ht="225" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:3" ht="216">
       <c r="A249" s="15">
         <v>71296</v>
       </c>
@@ -15124,7 +15159,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="250" spans="1:3" ht="225" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:3" ht="216">
       <c r="A250" s="15">
         <v>71301</v>
       </c>
@@ -15135,7 +15170,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="251" spans="1:3" ht="225" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:3" ht="216">
       <c r="A251" s="15">
         <v>71306</v>
       </c>
@@ -15146,7 +15181,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="252" spans="1:3" ht="225" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:3" ht="216">
       <c r="A252" s="15">
         <v>71311</v>
       </c>
@@ -15157,7 +15192,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="253" spans="1:3" ht="225" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:3" ht="216">
       <c r="A253" s="15">
         <v>71316</v>
       </c>
@@ -15168,7 +15203,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="254" spans="1:3" ht="225" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:3" ht="216">
       <c r="A254" s="15">
         <v>71321</v>
       </c>
@@ -15179,7 +15214,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="255" spans="1:3" ht="225" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:3" ht="216">
       <c r="A255" s="15">
         <v>71326</v>
       </c>
@@ -15190,7 +15225,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="256" spans="1:3" ht="225" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:3" ht="216">
       <c r="A256" s="15">
         <v>71331</v>
       </c>
@@ -15201,7 +15236,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="257" spans="1:3" ht="225" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:3" ht="216">
       <c r="A257" s="15">
         <v>71336</v>
       </c>
@@ -15212,7 +15247,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="258" spans="1:3" ht="225" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:3" ht="216">
       <c r="A258" s="15">
         <v>71341</v>
       </c>
@@ -15223,7 +15258,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="259" spans="1:3" ht="225" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:3" ht="216">
       <c r="A259" s="15">
         <v>71346</v>
       </c>
@@ -15234,7 +15269,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="260" spans="1:3" ht="180" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:3" ht="168">
       <c r="A260" s="15">
         <v>71541</v>
       </c>
@@ -15245,7 +15280,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="261" spans="1:3" ht="236.25" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:3" ht="228">
       <c r="A261" s="15">
         <v>71546</v>
       </c>
@@ -15256,7 +15291,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="262" spans="1:3" ht="236.25" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:3" ht="228">
       <c r="A262" s="15">
         <v>71551</v>
       </c>
@@ -15267,7 +15302,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="263" spans="1:3" ht="236.25" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:3" ht="228">
       <c r="A263" s="15">
         <v>71556</v>
       </c>
@@ -15278,7 +15313,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="264" spans="1:3" ht="236.25" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:3" ht="228">
       <c r="A264" s="15">
         <v>71561</v>
       </c>
@@ -15289,7 +15324,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="265" spans="1:3" ht="191.25" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:3" ht="180">
       <c r="A265" s="15">
         <v>71566</v>
       </c>
@@ -15300,7 +15335,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="266" spans="1:3" ht="191.25" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:3" ht="180">
       <c r="A266" s="15">
         <v>71571</v>
       </c>
@@ -15311,7 +15346,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="267" spans="1:3" ht="191.25" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:3" ht="180">
       <c r="A267" s="15">
         <v>71576</v>
       </c>
@@ -15322,7 +15357,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="268" spans="1:3" ht="225" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:3" ht="216">
       <c r="A268" s="15">
         <v>71581</v>
       </c>
@@ -15333,7 +15368,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="269" spans="1:3" ht="225" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:3" ht="216">
       <c r="A269" s="15">
         <v>71586</v>
       </c>
@@ -15344,7 +15379,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="270" spans="1:3" ht="225" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:3" ht="216">
       <c r="A270" s="15">
         <v>71591</v>
       </c>
@@ -15355,7 +15390,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="271" spans="1:3" ht="225" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:3" ht="216">
       <c r="A271" s="15">
         <v>71596</v>
       </c>
@@ -15366,7 +15401,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="272" spans="1:3" ht="225" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:3" ht="216">
       <c r="A272" s="15">
         <v>71601</v>
       </c>
@@ -15377,7 +15412,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="273" spans="1:3" ht="225" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:3" ht="216">
       <c r="A273" s="15">
         <v>71606</v>
       </c>
@@ -15388,7 +15423,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="274" spans="1:3" ht="225" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:3" ht="216">
       <c r="A274" s="15">
         <v>71611</v>
       </c>
@@ -15399,7 +15434,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="275" spans="1:3" ht="225" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:3" ht="216">
       <c r="A275" s="15">
         <v>71616</v>
       </c>
@@ -15410,7 +15445,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="276" spans="1:3" ht="225" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:3" ht="216">
       <c r="A276" s="15">
         <v>71621</v>
       </c>
@@ -15421,7 +15456,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="277" spans="1:3" ht="225" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:3" ht="216">
       <c r="A277" s="15">
         <v>71626</v>
       </c>
@@ -15432,7 +15467,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="278" spans="1:3" ht="225" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:3" ht="216">
       <c r="A278" s="15">
         <v>71631</v>
       </c>
@@ -15443,7 +15478,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="279" spans="1:3" ht="225" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:3" ht="216">
       <c r="A279" s="15">
         <v>71636</v>
       </c>
@@ -15454,7 +15489,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="280" spans="1:3" ht="225" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:3" ht="216">
       <c r="A280" s="15">
         <v>71641</v>
       </c>
@@ -15465,7 +15500,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="281" spans="1:3" ht="225" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:3" ht="216">
       <c r="A281" s="15">
         <v>71646</v>
       </c>
@@ -15476,7 +15511,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="282" spans="1:3" ht="303.75" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:3" ht="295">
       <c r="A282" s="15">
         <v>71892</v>
       </c>
@@ -15487,7 +15522,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="283" spans="1:3" ht="326.25" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:3" ht="328">
       <c r="A283" s="15">
         <v>71897</v>
       </c>
@@ -15498,7 +15533,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="284" spans="1:3" ht="326.25" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:3" ht="328">
       <c r="A284" s="15">
         <v>71902</v>
       </c>
@@ -15509,7 +15544,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="285" spans="1:3" ht="326.25" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:3" ht="328">
       <c r="A285" s="15">
         <v>71907</v>
       </c>
@@ -15520,7 +15555,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="286" spans="1:3" ht="326.25" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:3" ht="328">
       <c r="A286" s="15">
         <v>71912</v>
       </c>
@@ -15531,7 +15566,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="287" spans="1:3" ht="326.25" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:3" ht="328">
       <c r="A287" s="15">
         <v>71917</v>
       </c>
@@ -15542,7 +15577,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="288" spans="1:3" ht="292.5" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:3" ht="295">
       <c r="A288" s="15">
         <v>71922</v>
       </c>
@@ -15553,7 +15588,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="289" spans="1:3" ht="326.25" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:3" ht="328">
       <c r="A289" s="15">
         <v>71927</v>
       </c>
@@ -15564,7 +15599,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="290" spans="1:3" ht="326.25" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:3" ht="328">
       <c r="A290" s="15">
         <v>71932</v>
       </c>
@@ -15575,7 +15610,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="291" spans="1:3" ht="326.25" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:3" ht="328">
       <c r="A291" s="15">
         <v>71937</v>
       </c>
@@ -15586,7 +15621,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="292" spans="1:3" ht="326.25" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:3" ht="328">
       <c r="A292" s="15">
         <v>71942</v>
       </c>
@@ -15597,7 +15632,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="293" spans="1:3" ht="326.25" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:3" ht="328">
       <c r="A293" s="15">
         <v>71947</v>
       </c>
@@ -15608,7 +15643,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="294" spans="1:3" ht="292.5" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:3" ht="295">
       <c r="A294" s="15">
         <v>71952</v>
       </c>
@@ -15619,7 +15654,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="295" spans="1:3" ht="326.25" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:3" ht="328">
       <c r="A295" s="15">
         <v>71957</v>
       </c>
@@ -15630,7 +15665,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="296" spans="1:3" ht="326.25" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:3" ht="328">
       <c r="A296" s="15">
         <v>71962</v>
       </c>
@@ -15641,7 +15676,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="297" spans="1:3" ht="326.25" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:3" ht="328">
       <c r="A297" s="15">
         <v>71967</v>
       </c>
@@ -15652,7 +15687,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="298" spans="1:3" ht="326.25" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:3" ht="328">
       <c r="A298" s="15">
         <v>71972</v>
       </c>
@@ -15663,7 +15698,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="299" spans="1:3" ht="326.25" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:3" ht="328">
       <c r="A299" s="15">
         <v>71977</v>
       </c>
@@ -15674,7 +15709,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="300" spans="1:3" ht="371.25" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:3" ht="361">
       <c r="A300" s="15">
         <v>70966</v>
       </c>
@@ -15685,7 +15720,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="301" spans="1:3" ht="371.25" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:3" ht="361">
       <c r="A301" s="15">
         <v>70971</v>
       </c>
@@ -15696,7 +15731,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="302" spans="1:3" ht="371.25" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:3" ht="361">
       <c r="A302" s="15">
         <v>70976</v>
       </c>
@@ -15707,7 +15742,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="303" spans="1:3" ht="371.25" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:3" ht="361">
       <c r="A303" s="15">
         <v>70981</v>
       </c>
@@ -15718,7 +15753,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="304" spans="1:3" ht="371.25" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:3" ht="361">
       <c r="A304" s="15">
         <v>70986</v>
       </c>
@@ -15729,7 +15764,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="305" spans="1:3" ht="371.25" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:3" ht="361">
       <c r="A305" s="15">
         <v>70991</v>
       </c>
@@ -15740,7 +15775,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="306" spans="1:3" ht="371.25" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:3" ht="361">
       <c r="A306" s="15">
         <v>70996</v>
       </c>
@@ -15751,7 +15786,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="307" spans="1:3" ht="371.25" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:3" ht="361">
       <c r="A307" s="15">
         <v>71001</v>
       </c>
@@ -15762,7 +15797,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="308" spans="1:3" ht="371.25" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:3" ht="361">
       <c r="A308" s="15">
         <v>71351</v>
       </c>
@@ -15773,7 +15808,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="309" spans="1:3" ht="371.25" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:3" ht="361">
       <c r="A309" s="15">
         <v>71356</v>
       </c>
@@ -15784,7 +15819,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="310" spans="1:3" ht="371.25" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:3" ht="361">
       <c r="A310" s="15">
         <v>71361</v>
       </c>
@@ -15795,7 +15830,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="311" spans="1:3" ht="371.25" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:3" ht="361">
       <c r="A311" s="15">
         <v>71366</v>
       </c>
@@ -15806,7 +15841,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="312" spans="1:3" ht="371.25" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:3" ht="361">
       <c r="A312" s="15">
         <v>71371</v>
       </c>
@@ -15817,7 +15852,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="313" spans="1:3" ht="371.25" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:3" ht="361">
       <c r="A313" s="15">
         <v>71651</v>
       </c>
@@ -15828,7 +15863,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="314" spans="1:3" ht="371.25" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:3" ht="361">
       <c r="A314" s="15">
         <v>71656</v>
       </c>
@@ -15839,7 +15874,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="315" spans="1:3" ht="371.25" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:3" ht="361">
       <c r="A315" s="15">
         <v>71661</v>
       </c>
@@ -15850,7 +15885,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="316" spans="1:3" ht="371.25" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:3" ht="361">
       <c r="A316" s="15">
         <v>71666</v>
       </c>
@@ -15861,7 +15896,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="317" spans="1:3" ht="371.25" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:3" ht="361">
       <c r="A317" s="15">
         <v>71671</v>
       </c>
@@ -15872,42 +15907,42 @@
         <v>897</v>
       </c>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:3">
       <c r="A318" s="15"/>
       <c r="B318" s="15"/>
       <c r="C318" s="15"/>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:3">
       <c r="A319" s="15"/>
       <c r="B319" s="15"/>
       <c r="C319" s="15"/>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:3">
       <c r="A320" s="15"/>
       <c r="B320" s="15"/>
       <c r="C320" s="15"/>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:3">
       <c r="A321" s="15"/>
       <c r="B321" s="15"/>
       <c r="C321" s="15"/>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:3">
       <c r="A322" s="15"/>
       <c r="B322" s="15"/>
       <c r="C322" s="15"/>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:3">
       <c r="A323" s="15"/>
       <c r="B323" s="15"/>
       <c r="C323" s="15"/>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:3">
       <c r="A324" s="15"/>
       <c r="B324" s="15"/>
       <c r="C324" s="15"/>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:3">
       <c r="A325" s="15"/>
       <c r="B325" s="15"/>
       <c r="C325" s="15"/>
@@ -15919,7 +15954,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H324"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -15927,20 +15962,20 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" style="10" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" style="10" customWidth="1"/>
-    <col min="5" max="5" width="16.5703125" style="11" customWidth="1"/>
-    <col min="6" max="6" width="7.5703125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17.28515625" style="10" customWidth="1"/>
-    <col min="8" max="8" width="120.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="10.59765625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.59765625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.19921875" style="10" customWidth="1"/>
+    <col min="4" max="4" width="17.19921875" style="10" customWidth="1"/>
+    <col min="5" max="5" width="16.59765625" style="11" customWidth="1"/>
+    <col min="6" max="6" width="7.59765625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.19921875" style="10" customWidth="1"/>
+    <col min="8" max="8" width="120.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.19921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="8" customFormat="1">
       <c r="A1" s="8" t="s">
         <v>10</v>
       </c>
@@ -15966,7 +16001,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>70291</v>
       </c>
@@ -15992,7 +16027,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>70286</v>
       </c>
@@ -16018,7 +16053,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>70296</v>
       </c>
@@ -16044,7 +16079,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>70176</v>
       </c>
@@ -16070,7 +16105,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>70126</v>
       </c>
@@ -16096,7 +16131,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>70131</v>
       </c>
@@ -16122,7 +16157,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>70136</v>
       </c>
@@ -16148,7 +16183,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>70141</v>
       </c>
@@ -16174,7 +16209,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>70146</v>
       </c>
@@ -16200,7 +16235,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>70151</v>
       </c>
@@ -16226,7 +16261,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>70156</v>
       </c>
@@ -16252,7 +16287,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>70161</v>
       </c>
@@ -16278,7 +16313,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>70166</v>
       </c>
@@ -16304,7 +16339,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8">
       <c r="A15" s="1">
         <v>70171</v>
       </c>
@@ -16330,7 +16365,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8">
       <c r="A16" s="1">
         <v>70191</v>
       </c>
@@ -16356,7 +16391,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8">
       <c r="A17" s="1">
         <v>70181</v>
       </c>
@@ -16382,7 +16417,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8">
       <c r="A18" s="1">
         <v>70186</v>
       </c>
@@ -16408,7 +16443,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8">
       <c r="A19" s="1">
         <v>70401</v>
       </c>
@@ -16434,7 +16469,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8">
       <c r="A20" s="1">
         <v>70406</v>
       </c>
@@ -16460,7 +16495,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8">
       <c r="A21" s="1">
         <v>70301</v>
       </c>
@@ -16486,7 +16521,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8">
       <c r="A22" s="1">
         <v>70411</v>
       </c>
@@ -16512,7 +16547,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8">
       <c r="A23" s="1">
         <v>70306</v>
       </c>
@@ -16538,7 +16573,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8">
       <c r="A24" s="1">
         <v>70416</v>
       </c>
@@ -16564,7 +16599,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8">
       <c r="A25" s="1">
         <v>70421</v>
       </c>
@@ -16590,7 +16625,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8">
       <c r="A26" s="1">
         <v>70426</v>
       </c>
@@ -16616,7 +16651,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8">
       <c r="A27" s="1">
         <v>70431</v>
       </c>
@@ -16642,7 +16677,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8">
       <c r="A28" s="1">
         <v>70436</v>
       </c>
@@ -16668,7 +16703,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8">
       <c r="A29" s="1">
         <v>70441</v>
       </c>
@@ -16694,7 +16729,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8">
       <c r="A30" s="1">
         <v>70446</v>
       </c>
@@ -16720,7 +16755,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8">
       <c r="A31" s="1">
         <v>70196</v>
       </c>
@@ -16746,7 +16781,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8">
       <c r="A32" s="1">
         <v>70201</v>
       </c>
@@ -16772,7 +16807,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8">
       <c r="A33" s="1">
         <v>71099</v>
       </c>
@@ -16798,7 +16833,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8">
       <c r="A34" s="1">
         <v>71100</v>
       </c>
@@ -16824,7 +16859,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8">
       <c r="A35" s="1">
         <v>70311</v>
       </c>
@@ -16850,7 +16885,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8">
       <c r="A36" s="1">
         <v>70316</v>
       </c>
@@ -16876,7 +16911,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8">
       <c r="A37" s="1">
         <v>70451</v>
       </c>
@@ -16902,7 +16937,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8">
       <c r="A38" s="1">
         <v>70321</v>
       </c>
@@ -16928,7 +16963,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8">
       <c r="A39" s="1">
         <v>70206</v>
       </c>
@@ -16954,7 +16989,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8">
       <c r="A40" s="1">
         <v>70211</v>
       </c>
@@ -16980,7 +17015,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8">
       <c r="A41" s="1">
         <v>70456</v>
       </c>
@@ -17006,7 +17041,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8">
       <c r="A42" s="1">
         <v>70216</v>
       </c>
@@ -17032,7 +17067,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8">
       <c r="A43" s="1">
         <v>70326</v>
       </c>
@@ -17058,7 +17093,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8">
       <c r="A44" s="1">
         <v>70331</v>
       </c>
@@ -17084,7 +17119,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8">
       <c r="A45" s="1">
         <v>70461</v>
       </c>
@@ -17110,7 +17145,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8">
       <c r="A46" s="1">
         <v>70336</v>
       </c>
@@ -17136,7 +17171,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8">
       <c r="A47" s="1">
         <v>70341</v>
       </c>
@@ -17162,7 +17197,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8">
       <c r="A48" s="1">
         <v>70346</v>
       </c>
@@ -17188,7 +17223,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8">
       <c r="A49" s="1">
         <v>70466</v>
       </c>
@@ -17214,7 +17249,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8">
       <c r="A50" s="1">
         <v>70351</v>
       </c>
@@ -17240,7 +17275,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8">
       <c r="A51" s="1">
         <v>70221</v>
       </c>
@@ -17266,7 +17301,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8">
       <c r="A52" s="1">
         <v>70226</v>
       </c>
@@ -17292,7 +17327,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8">
       <c r="A53" s="1">
         <v>70471</v>
       </c>
@@ -17318,7 +17353,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8">
       <c r="A54" s="1">
         <v>70231</v>
       </c>
@@ -17344,7 +17379,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8">
       <c r="A55" s="1">
         <v>70236</v>
       </c>
@@ -17370,7 +17405,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8">
       <c r="A56" s="1">
         <v>70241</v>
       </c>
@@ -17396,7 +17431,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8">
       <c r="A57" s="1">
         <v>70476</v>
       </c>
@@ -17422,7 +17457,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8">
       <c r="A58" s="1">
         <v>70246</v>
       </c>
@@ -17448,7 +17483,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8">
       <c r="A59" s="1">
         <v>70251</v>
       </c>
@@ -17474,7 +17509,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8">
       <c r="A60" s="1">
         <v>70256</v>
       </c>
@@ -17500,7 +17535,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8">
       <c r="A61" s="1">
         <v>70481</v>
       </c>
@@ -17526,7 +17561,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8">
       <c r="A62" s="1">
         <v>70261</v>
       </c>
@@ -17552,7 +17587,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8">
       <c r="A63" s="1">
         <v>70356</v>
       </c>
@@ -17578,7 +17613,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8">
       <c r="A64" s="1">
         <v>70361</v>
       </c>
@@ -17604,7 +17639,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8">
       <c r="A65" s="1">
         <v>70486</v>
       </c>
@@ -17630,7 +17665,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8">
       <c r="A66" s="1">
         <v>70366</v>
       </c>
@@ -17656,7 +17691,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8">
       <c r="A67" s="1">
         <v>70371</v>
       </c>
@@ -17682,7 +17717,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8">
       <c r="A68" s="1">
         <v>70376</v>
       </c>
@@ -17708,7 +17743,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8">
       <c r="A69" s="1">
         <v>70491</v>
       </c>
@@ -17734,7 +17769,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8">
       <c r="A70" s="1">
         <v>70381</v>
       </c>
@@ -17760,7 +17795,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8">
       <c r="A71" s="1">
         <v>70496</v>
       </c>
@@ -17786,7 +17821,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8">
       <c r="A72" s="1">
         <v>70501</v>
       </c>
@@ -17812,7 +17847,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8">
       <c r="A73" s="1">
         <v>70506</v>
       </c>
@@ -17838,7 +17873,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8">
       <c r="A74" s="1">
         <v>70511</v>
       </c>
@@ -17864,7 +17899,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8">
       <c r="A75" s="1">
         <v>70516</v>
       </c>
@@ -17890,7 +17925,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8">
       <c r="A76" s="1">
         <v>70521</v>
       </c>
@@ -17916,7 +17951,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8">
       <c r="A77" s="1">
         <v>70526</v>
       </c>
@@ -17942,7 +17977,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8">
       <c r="A78" s="1">
         <v>70531</v>
       </c>
@@ -17968,7 +18003,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8">
       <c r="A79" s="1">
         <v>70536</v>
       </c>
@@ -17994,7 +18029,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8">
       <c r="A80" s="1">
         <v>70541</v>
       </c>
@@ -18020,7 +18055,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:8">
       <c r="A81" s="1">
         <v>70546</v>
       </c>
@@ -18046,7 +18081,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:8">
       <c r="A82" s="1">
         <v>70551</v>
       </c>
@@ -18072,7 +18107,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:8">
       <c r="A83" s="1">
         <v>70556</v>
       </c>
@@ -18098,7 +18133,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:8">
       <c r="A84" s="1">
         <v>70561</v>
       </c>
@@ -18124,7 +18159,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:8">
       <c r="A85" s="1">
         <v>70566</v>
       </c>
@@ -18150,7 +18185,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:8">
       <c r="A86" s="1">
         <v>70571</v>
       </c>
@@ -18176,7 +18211,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:8">
       <c r="A87" s="1">
         <v>70576</v>
       </c>
@@ -18202,7 +18237,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:8">
       <c r="A88" s="1">
         <v>70581</v>
       </c>
@@ -18228,7 +18263,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:8">
       <c r="A89" s="1">
         <v>70586</v>
       </c>
@@ -18254,7 +18289,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:8">
       <c r="A90" s="1">
         <v>70591</v>
       </c>
@@ -18280,7 +18315,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:8">
       <c r="A91" s="1">
         <v>70596</v>
       </c>
@@ -18306,7 +18341,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:8">
       <c r="A92" s="1">
         <v>70601</v>
       </c>
@@ -18332,7 +18367,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:8">
       <c r="A93" s="1">
         <v>70606</v>
       </c>
@@ -18358,7 +18393,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:8">
       <c r="A94" s="1">
         <v>70611</v>
       </c>
@@ -18384,7 +18419,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:8">
       <c r="A95" s="1">
         <v>70616</v>
       </c>
@@ -18410,7 +18445,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:8">
       <c r="A96" s="1">
         <v>70621</v>
       </c>
@@ -18436,7 +18471,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:8">
       <c r="A97" s="1">
         <v>70626</v>
       </c>
@@ -18462,7 +18497,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:8">
       <c r="A98" s="1">
         <v>70631</v>
       </c>
@@ -18488,7 +18523,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:8">
       <c r="A99" s="1">
         <v>70636</v>
       </c>
@@ -18514,7 +18549,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:8">
       <c r="A100" s="1">
         <v>70641</v>
       </c>
@@ -18540,7 +18575,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:8">
       <c r="A101" s="1">
         <v>70646</v>
       </c>
@@ -18566,7 +18601,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:8">
       <c r="A102" s="1">
         <v>70651</v>
       </c>
@@ -18592,7 +18627,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:8">
       <c r="A103" s="1">
         <v>70656</v>
       </c>
@@ -18618,7 +18653,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:8">
       <c r="A104" s="1">
         <v>70661</v>
       </c>
@@ -18644,7 +18679,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:8">
       <c r="A105" s="1">
         <v>70666</v>
       </c>
@@ -18670,7 +18705,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:8">
       <c r="A106" s="1">
         <v>70671</v>
       </c>
@@ -18696,7 +18731,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:8">
       <c r="A107" s="1">
         <v>70676</v>
       </c>
@@ -18722,7 +18757,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:8">
       <c r="A108" s="1">
         <v>70681</v>
       </c>
@@ -18748,7 +18783,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:8">
       <c r="A109" s="1">
         <v>70686</v>
       </c>
@@ -18774,7 +18809,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:8">
       <c r="A110" s="1">
         <v>70691</v>
       </c>
@@ -18800,7 +18835,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:8">
       <c r="A111" s="1">
         <v>70696</v>
       </c>
@@ -18826,7 +18861,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:8">
       <c r="A112" s="1">
         <v>70701</v>
       </c>
@@ -18852,7 +18887,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:8">
       <c r="A113" s="1">
         <v>70706</v>
       </c>
@@ -18878,7 +18913,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:8">
       <c r="A114" s="1">
         <v>71101</v>
       </c>
@@ -18904,7 +18939,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:8">
       <c r="A115" s="1">
         <v>71106</v>
       </c>
@@ -18930,7 +18965,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:8">
       <c r="A116" s="1">
         <v>71111</v>
       </c>
@@ -18956,7 +18991,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:8">
       <c r="A117" s="1">
         <v>71116</v>
       </c>
@@ -18982,7 +19017,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:8">
       <c r="A118" s="1">
         <v>71121</v>
       </c>
@@ -19008,7 +19043,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:8">
       <c r="A119" s="1">
         <v>71126</v>
       </c>
@@ -19034,7 +19069,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:8">
       <c r="A120" s="1">
         <v>71131</v>
       </c>
@@ -19060,7 +19095,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:8">
       <c r="A121" s="1">
         <v>71136</v>
       </c>
@@ -19086,7 +19121,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:8">
       <c r="A122" s="1">
         <v>71141</v>
       </c>
@@ -19112,7 +19147,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:8">
       <c r="A123" s="1">
         <v>71146</v>
       </c>
@@ -19138,7 +19173,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:8">
       <c r="A124" s="1">
         <v>71151</v>
       </c>
@@ -19164,7 +19199,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:8">
       <c r="A125" s="1">
         <v>71156</v>
       </c>
@@ -19190,7 +19225,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:8">
       <c r="A126" s="1">
         <v>71161</v>
       </c>
@@ -19216,7 +19251,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:8">
       <c r="A127" s="1">
         <v>71166</v>
       </c>
@@ -19242,7 +19277,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:8">
       <c r="A128" s="1">
         <v>71171</v>
       </c>
@@ -19268,7 +19303,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:8">
       <c r="A129" s="1">
         <v>71176</v>
       </c>
@@ -19294,7 +19329,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:8">
       <c r="A130" s="1">
         <v>71181</v>
       </c>
@@ -19320,7 +19355,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:8">
       <c r="A131" s="1">
         <v>71186</v>
       </c>
@@ -19346,7 +19381,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:8">
       <c r="A132" s="1">
         <v>71191</v>
       </c>
@@ -19372,7 +19407,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:8">
       <c r="A133" s="1">
         <v>71196</v>
       </c>
@@ -19398,7 +19433,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:8">
       <c r="A134" s="1">
         <v>71201</v>
       </c>
@@ -19424,7 +19459,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:8">
       <c r="A135" s="1">
         <v>71206</v>
       </c>
@@ -19450,7 +19485,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:8">
       <c r="A136" s="1">
         <v>71401</v>
       </c>
@@ -19476,7 +19511,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:8">
       <c r="A137" s="1">
         <v>71406</v>
       </c>
@@ -19502,7 +19537,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:8">
       <c r="A138" s="1">
         <v>71411</v>
       </c>
@@ -19528,7 +19563,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:8">
       <c r="A139" s="1">
         <v>71416</v>
       </c>
@@ -19554,7 +19589,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:8">
       <c r="A140" s="1">
         <v>71421</v>
       </c>
@@ -19580,7 +19615,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:8">
       <c r="A141" s="1">
         <v>71426</v>
       </c>
@@ -19606,7 +19641,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:8">
       <c r="A142" s="1">
         <v>71431</v>
       </c>
@@ -19632,7 +19667,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:8">
       <c r="A143" s="1">
         <v>71436</v>
       </c>
@@ -19658,7 +19693,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:8">
       <c r="A144" s="1">
         <v>71441</v>
       </c>
@@ -19684,7 +19719,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:8">
       <c r="A145" s="1">
         <v>71446</v>
       </c>
@@ -19710,7 +19745,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:8">
       <c r="A146" s="1">
         <v>71451</v>
       </c>
@@ -19736,7 +19771,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:8">
       <c r="A147" s="1">
         <v>71456</v>
       </c>
@@ -19762,7 +19797,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:8">
       <c r="A148" s="1">
         <v>71461</v>
       </c>
@@ -19788,7 +19823,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:8">
       <c r="A149" s="1">
         <v>71466</v>
       </c>
@@ -19814,7 +19849,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:8">
       <c r="A150" s="1">
         <v>71471</v>
       </c>
@@ -19840,7 +19875,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:8">
       <c r="A151" s="1">
         <v>71476</v>
       </c>
@@ -19866,7 +19901,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:8">
       <c r="A152" s="1">
         <v>71481</v>
       </c>
@@ -19892,7 +19927,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:8">
       <c r="A153" s="1">
         <v>71486</v>
       </c>
@@ -19918,7 +19953,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:8">
       <c r="A154" s="1">
         <v>71491</v>
       </c>
@@ -19944,7 +19979,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:8">
       <c r="A155" s="1">
         <v>71496</v>
       </c>
@@ -19970,7 +20005,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:8">
       <c r="A156" s="1">
         <v>71501</v>
       </c>
@@ -19996,7 +20031,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:8">
       <c r="A157" s="1">
         <v>71506</v>
       </c>
@@ -20022,7 +20057,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:8">
       <c r="A158" s="1">
         <v>71802</v>
       </c>
@@ -20048,7 +20083,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:8">
       <c r="A159" s="1">
         <v>71807</v>
       </c>
@@ -20074,7 +20109,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:8">
       <c r="A160" s="1">
         <v>71812</v>
       </c>
@@ -20100,7 +20135,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:8">
       <c r="A161" s="1">
         <v>71817</v>
       </c>
@@ -20126,7 +20161,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:8">
       <c r="A162" s="1">
         <v>71822</v>
       </c>
@@ -20152,7 +20187,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:8">
       <c r="A163" s="1">
         <v>71827</v>
       </c>
@@ -20178,7 +20213,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:8">
       <c r="A164" s="1">
         <v>71832</v>
       </c>
@@ -20204,7 +20239,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:8">
       <c r="A165" s="1">
         <v>71837</v>
       </c>
@@ -20230,7 +20265,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:8">
       <c r="A166" s="1">
         <v>71842</v>
       </c>
@@ -20256,7 +20291,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:8">
       <c r="A167" s="1">
         <v>71847</v>
       </c>
@@ -20282,7 +20317,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:8">
       <c r="A168" s="1">
         <v>71852</v>
       </c>
@@ -20308,7 +20343,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:8">
       <c r="A169" s="1">
         <v>71857</v>
       </c>
@@ -20334,7 +20369,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:8">
       <c r="A170" s="1">
         <v>71862</v>
       </c>
@@ -20360,7 +20395,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:8">
       <c r="A171" s="1">
         <v>71867</v>
       </c>
@@ -20386,7 +20421,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:8">
       <c r="A172" s="1">
         <v>71872</v>
       </c>
@@ -20412,7 +20447,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:8">
       <c r="A173" s="1">
         <v>71877</v>
       </c>
@@ -20438,7 +20473,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:8">
       <c r="A174" s="1">
         <v>71882</v>
       </c>
@@ -20464,7 +20499,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:8">
       <c r="A175" s="1">
         <v>71887</v>
       </c>
@@ -20490,7 +20525,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:8">
       <c r="A176" s="1">
         <v>70711</v>
       </c>
@@ -20516,7 +20551,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:8">
       <c r="A177" s="1">
         <v>70716</v>
       </c>
@@ -20542,7 +20577,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:8">
       <c r="A178" s="1">
         <v>70721</v>
       </c>
@@ -20568,7 +20603,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:8">
       <c r="A179" s="1">
         <v>70726</v>
       </c>
@@ -20594,7 +20629,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:8">
       <c r="A180" s="1">
         <v>70731</v>
       </c>
@@ -20620,7 +20655,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:8">
       <c r="A181" s="1">
         <v>70736</v>
       </c>
@@ -20646,7 +20681,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:8">
       <c r="A182" s="1">
         <v>70741</v>
       </c>
@@ -20672,7 +20707,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:8">
       <c r="A183" s="1">
         <v>70746</v>
       </c>
@@ -20698,7 +20733,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:8">
       <c r="A184" s="1">
         <v>71216</v>
       </c>
@@ -20724,7 +20759,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:8">
       <c r="A185" s="1">
         <v>71221</v>
       </c>
@@ -20750,7 +20785,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:8">
       <c r="A186" s="1">
         <v>71226</v>
       </c>
@@ -20776,7 +20811,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:8">
       <c r="A187" s="1">
         <v>71231</v>
       </c>
@@ -20802,7 +20837,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:8">
       <c r="A188" s="1">
         <v>71236</v>
       </c>
@@ -20828,7 +20863,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:8">
       <c r="A189" s="1">
         <v>71516</v>
       </c>
@@ -20854,7 +20889,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:8">
       <c r="A190" s="1">
         <v>71521</v>
       </c>
@@ -20880,7 +20915,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:8">
       <c r="A191" s="1">
         <v>71526</v>
       </c>
@@ -20906,7 +20941,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:8">
       <c r="A192" s="1">
         <v>71531</v>
       </c>
@@ -20932,7 +20967,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:8">
       <c r="A193" s="1">
         <v>71536</v>
       </c>
@@ -20958,7 +20993,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:8">
       <c r="A194" s="1">
         <v>70751</v>
       </c>
@@ -20984,7 +21019,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:8">
       <c r="A195" s="1">
         <v>70756</v>
       </c>
@@ -21010,7 +21045,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:8">
       <c r="A196" s="1">
         <v>70761</v>
       </c>
@@ -21036,7 +21071,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:8">
       <c r="A197" s="1">
         <v>70766</v>
       </c>
@@ -21062,7 +21097,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:8">
       <c r="A198" s="1">
         <v>70771</v>
       </c>
@@ -21088,7 +21123,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:8">
       <c r="A199" s="1">
         <v>70776</v>
       </c>
@@ -21114,7 +21149,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:8">
       <c r="A200" s="1">
         <v>70781</v>
       </c>
@@ -21140,7 +21175,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:8">
       <c r="A201" s="1">
         <v>70786</v>
       </c>
@@ -21166,7 +21201,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:8">
       <c r="A202" s="1">
         <v>70791</v>
       </c>
@@ -21192,7 +21227,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:8">
       <c r="A203" s="1">
         <v>70796</v>
       </c>
@@ -21218,7 +21253,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:8">
       <c r="A204" s="1">
         <v>70801</v>
       </c>
@@ -21244,7 +21279,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:8">
       <c r="A205" s="1">
         <v>70806</v>
       </c>
@@ -21270,7 +21305,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:8">
       <c r="A206" s="1">
         <v>70811</v>
       </c>
@@ -21296,7 +21331,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:8">
       <c r="A207" s="1">
         <v>70816</v>
       </c>
@@ -21322,7 +21357,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:8">
       <c r="A208" s="1">
         <v>70821</v>
       </c>
@@ -21348,7 +21383,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:8">
       <c r="A209" s="1">
         <v>70826</v>
       </c>
@@ -21374,7 +21409,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:8">
       <c r="A210" s="1">
         <v>70831</v>
       </c>
@@ -21400,7 +21435,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:8">
       <c r="A211" s="1">
         <v>70836</v>
       </c>
@@ -21426,7 +21461,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:8">
       <c r="A212" s="1">
         <v>70841</v>
       </c>
@@ -21452,7 +21487,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:8">
       <c r="A213" s="1">
         <v>70846</v>
       </c>
@@ -21478,7 +21513,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:8">
       <c r="A214" s="1">
         <v>70851</v>
       </c>
@@ -21504,7 +21539,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:8">
       <c r="A215" s="1">
         <v>70856</v>
       </c>
@@ -21530,7 +21565,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:8">
       <c r="A216" s="1">
         <v>70861</v>
       </c>
@@ -21556,7 +21591,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:8">
       <c r="A217" s="1">
         <v>70866</v>
       </c>
@@ -21582,7 +21617,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:8">
       <c r="A218" s="1">
         <v>70871</v>
       </c>
@@ -21608,7 +21643,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:8">
       <c r="A219" s="1">
         <v>70876</v>
       </c>
@@ -21634,7 +21669,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:8">
       <c r="A220" s="1">
         <v>70881</v>
       </c>
@@ -21660,7 +21695,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:8">
       <c r="A221" s="1">
         <v>70886</v>
       </c>
@@ -21686,7 +21721,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:8">
       <c r="A222" s="1">
         <v>70891</v>
       </c>
@@ -21712,7 +21747,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:8">
       <c r="A223" s="1">
         <v>70896</v>
       </c>
@@ -21738,7 +21773,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:8">
       <c r="A224" s="1">
         <v>70901</v>
       </c>
@@ -21764,7 +21799,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:8">
       <c r="A225" s="1">
         <v>70906</v>
       </c>
@@ -21790,7 +21825,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:8">
       <c r="A226" s="1">
         <v>70911</v>
       </c>
@@ -21816,7 +21851,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:8">
       <c r="A227" s="1">
         <v>70916</v>
       </c>
@@ -21842,7 +21877,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:8">
       <c r="A228" s="1">
         <v>70921</v>
       </c>
@@ -21868,7 +21903,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:8">
       <c r="A229" s="1">
         <v>70926</v>
       </c>
@@ -21894,7 +21929,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:8">
       <c r="A230" s="1">
         <v>70931</v>
       </c>
@@ -21920,7 +21955,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:8">
       <c r="A231" s="1">
         <v>70936</v>
       </c>
@@ -21946,7 +21981,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:8">
       <c r="A232" s="1">
         <v>70941</v>
       </c>
@@ -21972,7 +22007,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:8">
       <c r="A233" s="1">
         <v>70946</v>
       </c>
@@ -21998,7 +22033,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:8">
       <c r="A234" s="1">
         <v>70951</v>
       </c>
@@ -22024,7 +22059,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:8">
       <c r="A235" s="1">
         <v>70956</v>
       </c>
@@ -22050,7 +22085,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:8">
       <c r="A236" s="1">
         <v>70961</v>
       </c>
@@ -22076,7 +22111,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:8">
       <c r="A237" s="1">
         <v>71241</v>
       </c>
@@ -22102,7 +22137,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:8">
       <c r="A238" s="1">
         <v>71246</v>
       </c>
@@ -22128,7 +22163,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:8">
       <c r="A239" s="1">
         <v>71251</v>
       </c>
@@ -22154,7 +22189,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:8">
       <c r="A240" s="1">
         <v>71256</v>
       </c>
@@ -22180,7 +22215,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:8">
       <c r="A241" s="1">
         <v>71261</v>
       </c>
@@ -22206,7 +22241,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:8">
       <c r="A242" s="1">
         <v>71266</v>
       </c>
@@ -22232,7 +22267,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:8">
       <c r="A243" s="1">
         <v>71271</v>
       </c>
@@ -22258,7 +22293,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:8">
       <c r="A244" s="1">
         <v>71276</v>
       </c>
@@ -22284,7 +22319,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:8">
       <c r="A245" s="1">
         <v>71281</v>
       </c>
@@ -22310,7 +22345,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:8">
       <c r="A246" s="1">
         <v>71286</v>
       </c>
@@ -22336,7 +22371,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:8">
       <c r="A247" s="1">
         <v>71291</v>
       </c>
@@ -22362,7 +22397,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:8">
       <c r="A248" s="1">
         <v>71296</v>
       </c>
@@ -22388,7 +22423,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:8">
       <c r="A249" s="1">
         <v>71301</v>
       </c>
@@ -22414,7 +22449,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:8">
       <c r="A250" s="1">
         <v>71306</v>
       </c>
@@ -22440,7 +22475,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:8">
       <c r="A251" s="1">
         <v>71311</v>
       </c>
@@ -22466,7 +22501,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:8">
       <c r="A252" s="1">
         <v>71316</v>
       </c>
@@ -22492,7 +22527,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:8">
       <c r="A253" s="1">
         <v>71321</v>
       </c>
@@ -22518,7 +22553,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:8">
       <c r="A254" s="1">
         <v>71326</v>
       </c>
@@ -22544,7 +22579,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:8">
       <c r="A255" s="1">
         <v>71331</v>
       </c>
@@ -22570,7 +22605,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:8">
       <c r="A256" s="1">
         <v>71336</v>
       </c>
@@ -22596,7 +22631,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:8">
       <c r="A257" s="1">
         <v>71341</v>
       </c>
@@ -22622,7 +22657,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:8">
       <c r="A258" s="1">
         <v>71346</v>
       </c>
@@ -22648,7 +22683,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:8">
       <c r="A259" s="1">
         <v>71541</v>
       </c>
@@ -22674,7 +22709,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:8">
       <c r="A260" s="1">
         <v>71546</v>
       </c>
@@ -22700,7 +22735,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:8">
       <c r="A261" s="1">
         <v>71551</v>
       </c>
@@ -22726,7 +22761,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:8">
       <c r="A262" s="1">
         <v>71556</v>
       </c>
@@ -22752,7 +22787,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:8">
       <c r="A263" s="1">
         <v>71561</v>
       </c>
@@ -22778,7 +22813,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:8">
       <c r="A264" s="1">
         <v>71566</v>
       </c>
@@ -22804,7 +22839,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:8">
       <c r="A265" s="1">
         <v>71571</v>
       </c>
@@ -22830,7 +22865,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:8">
       <c r="A266" s="1">
         <v>71576</v>
       </c>
@@ -22856,7 +22891,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:8">
       <c r="A267" s="1">
         <v>71581</v>
       </c>
@@ -22882,7 +22917,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:8">
       <c r="A268" s="1">
         <v>71586</v>
       </c>
@@ -22908,7 +22943,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:8">
       <c r="A269" s="1">
         <v>71591</v>
       </c>
@@ -22934,7 +22969,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:8">
       <c r="A270" s="1">
         <v>71596</v>
       </c>
@@ -22960,7 +22995,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:8">
       <c r="A271" s="1">
         <v>71601</v>
       </c>
@@ -22986,7 +23021,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:8">
       <c r="A272" s="1">
         <v>71606</v>
       </c>
@@ -23012,7 +23047,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:8">
       <c r="A273" s="1">
         <v>71611</v>
       </c>
@@ -23038,7 +23073,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:8">
       <c r="A274" s="1">
         <v>71616</v>
       </c>
@@ -23064,7 +23099,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:8">
       <c r="A275" s="1">
         <v>71621</v>
       </c>
@@ -23090,7 +23125,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:8">
       <c r="A276" s="1">
         <v>71626</v>
       </c>
@@ -23116,7 +23151,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:8">
       <c r="A277" s="1">
         <v>71631</v>
       </c>
@@ -23142,7 +23177,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:8">
       <c r="A278" s="1">
         <v>71636</v>
       </c>
@@ -23168,7 +23203,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:8">
       <c r="A279" s="1">
         <v>71641</v>
       </c>
@@ -23194,7 +23229,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:8">
       <c r="A280" s="1">
         <v>71646</v>
       </c>
@@ -23220,7 +23255,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:8">
       <c r="A281" s="1">
         <v>71892</v>
       </c>
@@ -23246,7 +23281,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:8">
       <c r="A282" s="1">
         <v>71897</v>
       </c>
@@ -23272,7 +23307,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:8">
       <c r="A283" s="1">
         <v>71902</v>
       </c>
@@ -23298,7 +23333,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:8">
       <c r="A284" s="1">
         <v>71907</v>
       </c>
@@ -23324,7 +23359,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:8">
       <c r="A285" s="1">
         <v>71912</v>
       </c>
@@ -23350,7 +23385,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:8">
       <c r="A286" s="1">
         <v>71917</v>
       </c>
@@ -23376,7 +23411,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:8">
       <c r="A287" s="1">
         <v>71922</v>
       </c>
@@ -23402,7 +23437,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:8">
       <c r="A288" s="1">
         <v>71927</v>
       </c>
@@ -23428,7 +23463,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:8">
       <c r="A289" s="1">
         <v>71932</v>
       </c>
@@ -23454,7 +23489,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:8">
       <c r="A290" s="1">
         <v>71937</v>
       </c>
@@ -23480,7 +23515,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:8">
       <c r="A291" s="1">
         <v>71942</v>
       </c>
@@ -23506,7 +23541,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:8">
       <c r="A292" s="1">
         <v>71947</v>
       </c>
@@ -23532,7 +23567,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:8">
       <c r="A293" s="1">
         <v>71952</v>
       </c>
@@ -23558,7 +23593,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:8">
       <c r="A294" s="1">
         <v>71957</v>
       </c>
@@ -23584,7 +23619,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:8">
       <c r="A295" s="1">
         <v>71962</v>
       </c>
@@ -23610,7 +23645,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:8">
       <c r="A296" s="1">
         <v>71967</v>
       </c>
@@ -23636,7 +23671,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:8">
       <c r="A297" s="1">
         <v>71972</v>
       </c>
@@ -23662,7 +23697,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:8">
       <c r="A298" s="1">
         <v>71977</v>
       </c>
@@ -23688,7 +23723,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:8">
       <c r="A299" s="1">
         <v>70966</v>
       </c>
@@ -23714,7 +23749,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:8">
       <c r="A300" s="1">
         <v>70971</v>
       </c>
@@ -23740,7 +23775,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:8">
       <c r="A301" s="1">
         <v>70976</v>
       </c>
@@ -23766,7 +23801,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:8">
       <c r="A302" s="1">
         <v>70981</v>
       </c>
@@ -23792,7 +23827,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:8">
       <c r="A303" s="1">
         <v>70986</v>
       </c>
@@ -23818,7 +23853,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:8">
       <c r="A304" s="1">
         <v>70991</v>
       </c>
@@ -23844,7 +23879,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:8">
       <c r="A305" s="1">
         <v>70996</v>
       </c>
@@ -23870,7 +23905,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:8">
       <c r="A306" s="1">
         <v>71001</v>
       </c>
@@ -23896,7 +23931,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:8">
       <c r="A307" s="1">
         <v>71351</v>
       </c>
@@ -23922,7 +23957,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:8">
       <c r="A308" s="1">
         <v>71356</v>
       </c>
@@ -23948,7 +23983,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:8">
       <c r="A309" s="1">
         <v>71361</v>
       </c>
@@ -23974,7 +24009,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:8">
       <c r="A310" s="1">
         <v>71366</v>
       </c>
@@ -24000,7 +24035,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:8">
       <c r="A311" s="1">
         <v>71371</v>
       </c>
@@ -24026,7 +24061,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:8">
       <c r="A312" s="1">
         <v>71651</v>
       </c>
@@ -24052,7 +24087,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:8">
       <c r="A313" s="1">
         <v>71656</v>
       </c>
@@ -24078,7 +24113,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:8">
       <c r="A314" s="1">
         <v>71661</v>
       </c>
@@ -24104,7 +24139,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:8">
       <c r="A315" s="1">
         <v>71666</v>
       </c>
@@ -24130,7 +24165,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:8">
       <c r="A316" s="1">
         <v>71671</v>
       </c>
@@ -24156,28 +24191,28 @@
         <v>939</v>
       </c>
     </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:8">
       <c r="F317" s="10"/>
     </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:8">
       <c r="F318" s="10"/>
     </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:8">
       <c r="F319" s="10"/>
     </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:8">
       <c r="F320" s="10"/>
     </row>
-    <row r="321" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="321" spans="6:6">
       <c r="F321" s="10"/>
     </row>
-    <row r="322" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="322" spans="6:6">
       <c r="F322" s="10"/>
     </row>
-    <row r="323" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="323" spans="6:6">
       <c r="F323" s="10"/>
     </row>
-    <row r="324" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="324" spans="6:6">
       <c r="F324" s="10"/>
     </row>
   </sheetData>
@@ -24187,24 +24222,24 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="36.5703125" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="11.59765625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="36.59765625" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.19921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
         <v>675</v>
       </c>
@@ -24212,7 +24247,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
         <v>677</v>
       </c>
@@ -24220,7 +24255,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
         <v>679</v>
       </c>
@@ -24228,7 +24263,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
         <v>681</v>
       </c>
@@ -24236,7 +24271,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
         <v>683</v>
       </c>
@@ -24244,7 +24279,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
         <v>685</v>
       </c>
@@ -24252,7 +24287,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
         <v>687</v>
       </c>
@@ -24260,7 +24295,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
         <v>689</v>
       </c>
@@ -24268,7 +24303,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
         <v>691</v>
       </c>
@@ -24276,7 +24311,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
         <v>693</v>
       </c>
@@ -24284,7 +24319,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
         <v>18</v>
       </c>
@@ -24292,7 +24327,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
         <v>696</v>
       </c>
@@ -24300,7 +24335,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
         <v>698</v>
       </c>
@@ -24308,7 +24343,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
         <v>700</v>
       </c>
